--- a/DaneTelefonow — kopia.xlsx
+++ b/DaneTelefonow — kopia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RMapps\Git\Statystyczna-analiza-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDBB7ED-EC3D-4015-A851-233BD6AA39F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD368F05-93B6-49B7-8FC9-4AB1E38A8FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Telefon\zmienne</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>d0</t>
+  </si>
+  <si>
+    <t>wagi:</t>
+  </si>
+  <si>
+    <t>model:</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS27"/>
+  <dimension ref="A1:AS50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AU18" sqref="AU18"/>
+    <sheetView tabSelected="1" topLeftCell="AE26" zoomScale="90" workbookViewId="0">
+      <selection activeCell="AS28" sqref="AS28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,6 +1054,7 @@
     <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
@@ -1307,7 +1314,7 @@
         <v>9.2833887072095713</v>
       </c>
       <c r="AS2" cm="1">
-        <f t="array" ref="AS2:AS24">1-AP2:AP24/$AQ$2</f>
+        <f t="array" ref="AS2:AS24">1-(AP2:AP24/$AQ$2)</f>
         <v>0.27420644734871003</v>
       </c>
     </row>
@@ -1433,7 +1440,7 @@
         <v>14.350597052355416</v>
       </c>
       <c r="AP3">
-        <f t="shared" ref="AP3:AP24" si="10">SQRT(SUM(AF3:AN3))</f>
+        <f t="shared" ref="AP3:AP50" si="10">SQRT(SUM(AF3:AN3))</f>
         <v>6.5974509616026804</v>
       </c>
       <c r="AS3">
@@ -4228,6 +4235,37 @@
         <f t="shared" si="12"/>
         <v>3.6279051879960242</v>
       </c>
+      <c r="AE26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF26">
+        <v>0.17</v>
+      </c>
+      <c r="AG26">
+        <v>0.21</v>
+      </c>
+      <c r="AH26">
+        <v>0.1</v>
+      </c>
+      <c r="AI26">
+        <v>0.09</v>
+      </c>
+      <c r="AJ26">
+        <v>0.04</v>
+      </c>
+      <c r="AK26">
+        <v>0.08</v>
+      </c>
+      <c r="AL26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AM26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AN26">
+        <f>1-SUM(AF26:AM26)</f>
+        <v>0.16000000000000014</v>
+      </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
@@ -4268,6 +4306,918 @@
       <c r="T27">
         <f t="shared" si="13"/>
         <v>39.596452076079146</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AE28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF28" cm="1">
+        <f t="array" ref="AF28:AN50">AF$26:AN$26*AF2:AN24</f>
+        <v>0.36720778221764033</v>
+      </c>
+      <c r="AG28">
+        <v>0.42842906030960715</v>
+      </c>
+      <c r="AH28">
+        <v>1.0189653548027497</v>
+      </c>
+      <c r="AI28">
+        <v>0.41258155819680903</v>
+      </c>
+      <c r="AJ28">
+        <v>0.22282173955144927</v>
+      </c>
+      <c r="AK28">
+        <v>0.43077314503176384</v>
+      </c>
+      <c r="AL28">
+        <v>4.688601325013856E-2</v>
+      </c>
+      <c r="AM28">
+        <v>1.005433567371762E-3</v>
+      </c>
+      <c r="AN28">
+        <v>2.3577329372275186</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="10"/>
+        <v>2.2992179157607153</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" ref="AQ3:AQ28" si="14">AVERAGE(AP28:AP50)+2*_xlfn.STDEV.P(AP28:AP50)</f>
+        <v>3.1389434406530969</v>
+      </c>
+      <c r="AS28" cm="1">
+        <f t="array" ref="AS28:AS50">1-(AP28:AP50/$AQ$28)</f>
+        <v>0.26751852678099419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AE29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF29">
+        <v>0.11601814504172195</v>
+      </c>
+      <c r="AG29">
+        <v>5.0221872848004126E-2</v>
+      </c>
+      <c r="AH29">
+        <v>1.0189653548027497</v>
+      </c>
+      <c r="AI29">
+        <v>0.26405219724595774</v>
+      </c>
+      <c r="AJ29">
+        <v>0.39960232329845008</v>
+      </c>
+      <c r="AK29">
+        <v>6.1295580940860975E-2</v>
+      </c>
+      <c r="AL29">
+        <v>0.27741176576049842</v>
+      </c>
+      <c r="AM29">
+        <v>9.0489021063458689E-3</v>
+      </c>
+      <c r="AN29">
+        <v>2.2960955283768687</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="10"/>
+        <v>2.1196017716593505</v>
+      </c>
+      <c r="AS29">
+        <v>0.3247403746725871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AE30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF30">
+        <v>0.57827107880178985</v>
+      </c>
+      <c r="AG30">
+        <v>1.1642656394118923E-2</v>
+      </c>
+      <c r="AH30">
+        <v>1.0189653548027497</v>
+      </c>
+      <c r="AI30">
+        <v>0.26405219724595774</v>
+      </c>
+      <c r="AJ30">
+        <v>0.19910980814870866</v>
+      </c>
+      <c r="AK30">
+        <v>6.1295580940860975E-2</v>
+      </c>
+      <c r="AL30">
+        <v>0.34248366143271414</v>
+      </c>
+      <c r="AM30">
+        <v>1.6086937077948213E-2</v>
+      </c>
+      <c r="AN30">
+        <v>0.86374011343030266</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="10"/>
+        <v>1.8318426210444911</v>
+      </c>
+      <c r="AS30">
+        <v>0.41641426305427376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AE31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF31">
+        <v>1.0280374734254036</v>
+      </c>
+      <c r="AG31">
+        <v>2.4922201385793021E-2</v>
+      </c>
+      <c r="AH31">
+        <v>0.74177521704309268</v>
+      </c>
+      <c r="AI31">
+        <v>0.26405219724595774</v>
+      </c>
+      <c r="AJ31">
+        <v>0.15163793468346953</v>
+      </c>
+      <c r="AK31">
+        <v>0.55166022846774876</v>
+      </c>
+      <c r="AL31">
+        <v>0.34248366143271414</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>2.2960955283768687</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="10"/>
+        <v>2.3239329684956593</v>
+      </c>
+      <c r="AS31">
+        <v>0.25964484151006695</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AE32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF32">
+        <v>2.2770835522446444</v>
+      </c>
+      <c r="AG32">
+        <v>5.5480134625260887E-3</v>
+      </c>
+      <c r="AH32">
+        <v>1.0189653548027497</v>
+      </c>
+      <c r="AI32">
+        <v>0.26405219724595774</v>
+      </c>
+      <c r="AJ32">
+        <v>0.290714146967125</v>
+      </c>
+      <c r="AK32">
+        <v>0.15691668720860411</v>
+      </c>
+      <c r="AL32">
+        <v>0.57879738782128687</v>
+      </c>
+      <c r="AM32">
+        <v>4.0217342694870515E-3</v>
+      </c>
+      <c r="AN32">
+        <v>2.2960955283768687</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="10"/>
+        <v>2.6252989548619503</v>
+      </c>
+      <c r="AS32">
+        <v>0.16363610734071599</v>
+      </c>
+    </row>
+    <row r="33" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF33">
+        <v>0.26510365754530846</v>
+      </c>
+      <c r="AG33">
+        <v>0.11033658661469485</v>
+      </c>
+      <c r="AH33">
+        <v>1.0189653548027497</v>
+      </c>
+      <c r="AI33">
+        <v>6.6013049311489436E-2</v>
+      </c>
+      <c r="AJ33">
+        <v>0.45354496679552808</v>
+      </c>
+      <c r="AK33">
+        <v>6.0928359115444274E-2</v>
+      </c>
+      <c r="AL33">
+        <v>0.16781699410202994</v>
+      </c>
+      <c r="AM33">
+        <v>6.4347748311792852E-2</v>
+      </c>
+      <c r="AN33">
+        <v>2.2960955283768687</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="10"/>
+        <v>2.1220632047551993</v>
+      </c>
+      <c r="AS33">
+        <v>0.32395621492508409</v>
+      </c>
+    </row>
+    <row r="34" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF34">
+        <v>0.16641921318924119</v>
+      </c>
+      <c r="AG34">
+        <v>7.502279771121606E-2</v>
+      </c>
+      <c r="AH34">
+        <v>0.74177521704309268</v>
+      </c>
+      <c r="AI34">
+        <v>6.6013049311489436E-2</v>
+      </c>
+      <c r="AJ34">
+        <v>0.41943072577853707</v>
+      </c>
+      <c r="AK34">
+        <v>0.1201393386440875</v>
+      </c>
+      <c r="AL34">
+        <v>0.27741176576049842</v>
+      </c>
+      <c r="AM34">
+        <v>4.0217342694870515E-3</v>
+      </c>
+      <c r="AN34">
+        <v>0.86374011343030266</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="10"/>
+        <v>1.6534733004006905</v>
+      </c>
+      <c r="AS34">
+        <v>0.47323889975645295</v>
+      </c>
+    </row>
+    <row r="35" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF35">
+        <v>1.4023983484146807</v>
+      </c>
+      <c r="AG35">
+        <v>1.5459270721318608E-2</v>
+      </c>
+      <c r="AH35">
+        <v>1.0189653548027497</v>
+      </c>
+      <c r="AI35">
+        <v>0.26405219724595774</v>
+      </c>
+      <c r="AJ35">
+        <v>0.42278213655553848</v>
+      </c>
+      <c r="AK35">
+        <v>0.13426184049286188</v>
+      </c>
+      <c r="AL35">
+        <v>0.34248366143271414</v>
+      </c>
+      <c r="AM35">
+        <v>3.6195608425383476E-2</v>
+      </c>
+      <c r="AN35">
+        <v>1.8874925730159362</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="10"/>
+        <v>2.3503384843692494</v>
+      </c>
+      <c r="AS35">
+        <v>0.25123261097045069</v>
+      </c>
+    </row>
+    <row r="36" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF36">
+        <v>1.411794625981054E-4</v>
+      </c>
+      <c r="AG36">
+        <v>2.5802882227685701E-3</v>
+      </c>
+      <c r="AH36">
+        <v>1.2556747546222593</v>
+      </c>
+      <c r="AI36">
+        <v>0.59411744380340481</v>
+      </c>
+      <c r="AJ36">
+        <v>0.17673150618369257</v>
+      </c>
+      <c r="AK36">
+        <v>0.55166022846774876</v>
+      </c>
+      <c r="AL36">
+        <v>0.34248366143271414</v>
+      </c>
+      <c r="AM36">
+        <v>0.90489021063458674</v>
+      </c>
+      <c r="AN36">
+        <v>3.6068089046645353</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="10"/>
+        <v>2.7267358099922894</v>
+      </c>
+      <c r="AS36">
+        <v>0.13132050272783591</v>
+      </c>
+    </row>
+    <row r="37" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF37">
+        <v>0.62746427821374773</v>
+      </c>
+      <c r="AG37">
+        <v>0.32818239929651194</v>
+      </c>
+      <c r="AH37">
+        <v>0.31912886837985288</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0.3076619098617272</v>
+      </c>
+      <c r="AK37">
+        <v>4.9649420562097382E-2</v>
+      </c>
+      <c r="AL37">
+        <v>0.16781699410202994</v>
+      </c>
+      <c r="AM37">
+        <v>1.005433567371762E-3</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="10"/>
+        <v>1.3419796212995707</v>
+      </c>
+      <c r="AS37">
+        <v>0.57247409943125482</v>
+      </c>
+    </row>
+    <row r="38" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF38">
+        <v>5.4605078811551334E-2</v>
+      </c>
+      <c r="AG38">
+        <v>0.21588932283252477</v>
+      </c>
+      <c r="AH38">
+        <v>1.0189653548027497</v>
+      </c>
+      <c r="AI38">
+        <v>0.26405219724595774</v>
+      </c>
+      <c r="AJ38">
+        <v>0.20374550407423883</v>
+      </c>
+      <c r="AK38">
+        <v>0.27031351194919695</v>
+      </c>
+      <c r="AL38">
+        <v>6.0414117876730761E-2</v>
+      </c>
+      <c r="AM38">
+        <v>9.0489021063458689E-3</v>
+      </c>
+      <c r="AN38">
+        <v>2.2960955283768687</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="10"/>
+        <v>2.0959793696685485</v>
+      </c>
+      <c r="AS38">
+        <v>0.33226596487114357</v>
+      </c>
+    </row>
+    <row r="39" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF39">
+        <v>0.64007631020584388</v>
+      </c>
+      <c r="AG39">
+        <v>3.1851001379893442</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0.73853624311949007</v>
+      </c>
+      <c r="AK39">
+        <v>6.1295580940860975E-2</v>
+      </c>
+      <c r="AL39">
+        <v>0.21374405310015684</v>
+      </c>
+      <c r="AM39">
+        <v>1.005433567371762E-3</v>
+      </c>
+      <c r="AN39">
+        <v>2.3577329372275186</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" si="10"/>
+        <v>2.682813951087661</v>
+      </c>
+      <c r="AS39">
+        <v>0.14531306415337397</v>
+      </c>
+    </row>
+    <row r="40" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF40">
+        <v>5.4605078811551334E-2</v>
+      </c>
+      <c r="AG40">
+        <v>2.360359821312819</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0.26405219724595774</v>
+      </c>
+      <c r="AJ40">
+        <v>0.53329067265369878</v>
+      </c>
+      <c r="AK40">
+        <v>0.15263114537154288</v>
+      </c>
+      <c r="AL40">
+        <v>1.58313072497272E-2</v>
+      </c>
+      <c r="AM40">
+        <v>1.005433567371762E-3</v>
+      </c>
+      <c r="AN40">
+        <v>2.3577329372275186</v>
+      </c>
+      <c r="AP40">
+        <f t="shared" si="10"/>
+        <v>2.3957271533795721</v>
+      </c>
+      <c r="AS40">
+        <v>0.23677275533161224</v>
+      </c>
+    </row>
+    <row r="41" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF41">
+        <v>1.7394721586711051</v>
+      </c>
+      <c r="AG41">
+        <v>0.18200847625447594</v>
+      </c>
+      <c r="AH41">
+        <v>1.0189653548027497</v>
+      </c>
+      <c r="AI41">
+        <v>0.59411744380340481</v>
+      </c>
+      <c r="AJ41">
+        <v>0.23768904052320128</v>
+      </c>
+      <c r="AK41">
+        <v>0.2247846868158489</v>
+      </c>
+      <c r="AL41">
+        <v>8.2230327109994658E-2</v>
+      </c>
+      <c r="AM41">
+        <v>8.1440118957112825E-2</v>
+      </c>
+      <c r="AN41">
+        <v>3.6068089046645353</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="10"/>
+        <v>2.7870264641015572</v>
+      </c>
+      <c r="AS41">
+        <v>0.11211319452073942</v>
+      </c>
+    </row>
+    <row r="42" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF42">
+        <v>0.61497773907729392</v>
+      </c>
+      <c r="AG42">
+        <v>1.0764290305213504</v>
+      </c>
+      <c r="AH42">
+        <v>0.31912886837985288</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0.73853624311949007</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>4.0217342694870515E-3</v>
+      </c>
+      <c r="AN42">
+        <v>2.2960955283768687</v>
+      </c>
+      <c r="AP42">
+        <f t="shared" si="10"/>
+        <v>2.2470400850328289</v>
+      </c>
+      <c r="AS42">
+        <v>0.28414126360769854</v>
+      </c>
+    </row>
+    <row r="43" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF43">
+        <v>5.2769745797776171E-2</v>
+      </c>
+      <c r="AG43">
+        <v>0.38751445098768611</v>
+      </c>
+      <c r="AH43">
+        <v>0.31912886837985288</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0.67770673720600305</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>8.5620915358178534E-2</v>
+      </c>
+      <c r="AM43">
+        <v>4.0217342694870515E-3</v>
+      </c>
+      <c r="AN43">
+        <v>2.2960955283768687</v>
+      </c>
+      <c r="AP43">
+        <f t="shared" si="10"/>
+        <v>1.9552130268530465</v>
+      </c>
+      <c r="AS43">
+        <v>0.37711110001834258</v>
+      </c>
+    </row>
+    <row r="44" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF44">
+        <v>0.28166871449015141</v>
+      </c>
+      <c r="AG44">
+        <v>3.6443581257330847E-2</v>
+      </c>
+      <c r="AH44">
+        <v>1.0189653548027497</v>
+      </c>
+      <c r="AI44">
+        <v>0.41258155819680903</v>
+      </c>
+      <c r="AJ44">
+        <v>0.36138583813101849</v>
+      </c>
+      <c r="AK44">
+        <v>0.13426184049286188</v>
+      </c>
+      <c r="AL44">
+        <v>8.5620915358178534E-2</v>
+      </c>
+      <c r="AM44">
+        <v>0.12165746165198338</v>
+      </c>
+      <c r="AN44">
+        <v>2.3577329372275186</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="10"/>
+        <v>2.1932437624688692</v>
+      </c>
+      <c r="AS44">
+        <v>0.30127961719101981</v>
+      </c>
+    </row>
+    <row r="45" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF45">
+        <v>0.36720778221764033</v>
+      </c>
+      <c r="AG45">
+        <v>1.3119689252639097E-2</v>
+      </c>
+      <c r="AH45">
+        <v>1.0189653548027497</v>
+      </c>
+      <c r="AI45">
+        <v>0.26405219724595774</v>
+      </c>
+      <c r="AJ45">
+        <v>0.22772416136452425</v>
+      </c>
+      <c r="AK45">
+        <v>0.23909107540744587</v>
+      </c>
+      <c r="AL45">
+        <v>0.37758823672956726</v>
+      </c>
+      <c r="AM45">
+        <v>0.1447824337015339</v>
+      </c>
+      <c r="AN45">
+        <v>2.3577329372275186</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" si="10"/>
+        <v>2.2383618715367666</v>
+      </c>
+      <c r="AS45">
+        <v>0.28690595614203007</v>
+      </c>
+    </row>
+    <row r="46" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF46">
+        <v>4.5334294100943268E-3</v>
+      </c>
+      <c r="AG46">
+        <v>0.12385030745024402</v>
+      </c>
+      <c r="AH46">
+        <v>0.74177521704309268</v>
+      </c>
+      <c r="AI46">
+        <v>6.6013049311489436E-2</v>
+      </c>
+      <c r="AJ46">
+        <v>0.41276791310766575</v>
+      </c>
+      <c r="AK46">
+        <v>4.3250161911871504E-2</v>
+      </c>
+      <c r="AL46">
+        <v>8.5620915358178534E-2</v>
+      </c>
+      <c r="AM46">
+        <v>4.0217342694870515E-3</v>
+      </c>
+      <c r="AN46">
+        <v>1.8874925730159362</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="10"/>
+        <v>1.8355721998543286</v>
+      </c>
+      <c r="AS46">
+        <v>0.41522609930416121</v>
+      </c>
+    </row>
+    <row r="47" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF47">
+        <v>1.1776877037793818</v>
+      </c>
+      <c r="AG47">
+        <v>0.57049016331182745</v>
+      </c>
+      <c r="AH47">
+        <v>0.31912886837985288</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0.64412061344635063</v>
+      </c>
+      <c r="AK47">
+        <v>6.1295580940860975E-2</v>
+      </c>
+      <c r="AL47">
+        <v>0.12329411811577708</v>
+      </c>
+      <c r="AM47">
+        <v>4.9266244801216393E-2</v>
+      </c>
+      <c r="AN47">
+        <v>1.8874925730159362</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="10"/>
+        <v>2.1983575382069231</v>
+      </c>
+      <c r="AS47">
+        <v>0.2996504780125866</v>
+      </c>
+    </row>
+    <row r="48" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF48">
+        <v>1.1099215617322973</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>1.3400249247540494</v>
+      </c>
+      <c r="AI48">
+        <v>1.054146888472042</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1.4122501848774365</v>
+      </c>
+      <c r="AL48">
+        <v>1.510352946918269</v>
+      </c>
+      <c r="AM48">
+        <v>0.6796730915433119</v>
+      </c>
+      <c r="AN48">
+        <v>4.0007168486438562</v>
+      </c>
+      <c r="AP48">
+        <f t="shared" si="10"/>
+        <v>3.3327295790299671</v>
+      </c>
+      <c r="AS48">
+        <v>-6.1736103896332217E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF49">
+        <v>0.37687073210213229</v>
+      </c>
+      <c r="AG49">
+        <v>2.7556583181346572E-2</v>
+      </c>
+      <c r="AH49">
+        <v>1.0189653548027497</v>
+      </c>
+      <c r="AI49">
+        <v>0.41258155819680903</v>
+      </c>
+      <c r="AJ49">
+        <v>0.48899283725024384</v>
+      </c>
+      <c r="AK49">
+        <v>4.3250161911871504E-2</v>
+      </c>
+      <c r="AL49">
+        <v>0.30909150444302452</v>
+      </c>
+      <c r="AM49">
+        <v>0.16991827288582798</v>
+      </c>
+      <c r="AN49">
+        <v>1.8874925730159362</v>
+      </c>
+      <c r="AP49">
+        <f t="shared" si="10"/>
+        <v>2.1759410786576785</v>
+      </c>
+      <c r="AS49">
+        <v>0.30679188083588205</v>
+      </c>
+    </row>
+    <row r="50" spans="31:45" x14ac:dyDescent="0.3">
+      <c r="AE50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>1.5088882686778121E-3</v>
+      </c>
+      <c r="AH50">
+        <v>1.2975277209671576</v>
+      </c>
+      <c r="AI50">
+        <v>0.92830850594282022</v>
+      </c>
+      <c r="AJ50">
+        <v>4.795091315926979E-2</v>
+      </c>
+      <c r="AK50">
+        <v>0.98072929505377571</v>
+      </c>
+      <c r="AL50">
+        <v>0.72007189816228145</v>
+      </c>
+      <c r="AM50">
+        <v>1.0295639729886858</v>
+      </c>
+      <c r="AN50">
+        <v>3.7619229136926617</v>
+      </c>
+      <c r="AP50">
+        <f t="shared" si="10"/>
+        <v>2.9610106565555161</v>
+      </c>
+      <c r="AS50">
+        <v>5.6685565529195903E-2</v>
       </c>
     </row>
   </sheetData>

--- a/DaneTelefonow — kopia.xlsx
+++ b/DaneTelefonow — kopia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RMapps\Git\Statystyczna-analiza-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD368F05-93B6-49B7-8FC9-4AB1E38A8FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72903CAB-026C-4D1C-8582-EF7C0FF2A190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
   <si>
     <t>Telefon\zmienne</t>
   </si>
@@ -1038,15 +1038,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE26" zoomScale="90" workbookViewId="0">
-      <selection activeCell="AS28" sqref="AS28"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
@@ -1055,6 +1053,12 @@
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
@@ -4245,13 +4249,13 @@
         <v>0.21</v>
       </c>
       <c r="AH26">
+        <v>0.11</v>
+      </c>
+      <c r="AI26">
         <v>0.1</v>
       </c>
-      <c r="AI26">
-        <v>0.09</v>
-      </c>
       <c r="AJ26">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AK26">
         <v>0.08</v>
@@ -4264,7 +4268,7 @@
       </c>
       <c r="AN26">
         <f>1-SUM(AF26:AM26)</f>
-        <v>0.16000000000000014</v>
+        <v>0.13000000000000012</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.3">
@@ -4310,6 +4314,33 @@
       <c r="AE27" t="s">
         <v>39</v>
       </c>
+      <c r="AF27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN27" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AP27" t="s">
         <v>36</v>
       </c>
@@ -4329,13 +4360,13 @@
         <v>0.42842906030960715</v>
       </c>
       <c r="AH28">
-        <v>1.0189653548027497</v>
+        <v>1.1208618902830247</v>
       </c>
       <c r="AI28">
-        <v>0.41258155819680903</v>
+        <v>0.45842395355201004</v>
       </c>
       <c r="AJ28">
-        <v>0.22282173955144927</v>
+        <v>0.27852717443931158</v>
       </c>
       <c r="AK28">
         <v>0.43077314503176384</v>
@@ -4347,19 +4378,19 @@
         <v>1.005433567371762E-3</v>
       </c>
       <c r="AN28">
-        <v>2.3577329372275186</v>
+        <v>1.9156580114973589</v>
       </c>
       <c r="AP28">
         <f t="shared" si="10"/>
-        <v>2.2992179157607153</v>
+        <v>2.246724830536269</v>
       </c>
       <c r="AQ28">
         <f t="shared" ref="AQ3:AQ28" si="14">AVERAGE(AP28:AP50)+2*_xlfn.STDEV.P(AP28:AP50)</f>
-        <v>3.1389434406530969</v>
+        <v>3.0502340654965314</v>
       </c>
       <c r="AS28" cm="1">
         <f t="array" ref="AS28:AS50">1-(AP28:AP50/$AQ$28)</f>
-        <v>0.26751852678099419</v>
+        <v>0.26342543480493963</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.3">
@@ -4373,13 +4404,13 @@
         <v>5.0221872848004126E-2</v>
       </c>
       <c r="AH29">
-        <v>1.0189653548027497</v>
+        <v>1.1208618902830247</v>
       </c>
       <c r="AI29">
-        <v>0.26405219724595774</v>
+        <v>0.2933913302732864</v>
       </c>
       <c r="AJ29">
-        <v>0.39960232329845008</v>
+        <v>0.49950290412306259</v>
       </c>
       <c r="AK29">
         <v>6.1295580940860975E-2</v>
@@ -4391,14 +4422,14 @@
         <v>9.0489021063458689E-3</v>
       </c>
       <c r="AN29">
-        <v>2.2960955283768687</v>
+        <v>1.8655776168062057</v>
       </c>
       <c r="AP29">
         <f t="shared" si="10"/>
-        <v>2.1196017716593505</v>
+        <v>2.0720352333353338</v>
       </c>
       <c r="AS29">
-        <v>0.3247403746725871</v>
+        <v>0.32069631744866167</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.3">
@@ -4412,13 +4443,13 @@
         <v>1.1642656394118923E-2</v>
       </c>
       <c r="AH30">
-        <v>1.0189653548027497</v>
+        <v>1.1208618902830247</v>
       </c>
       <c r="AI30">
-        <v>0.26405219724595774</v>
+        <v>0.2933913302732864</v>
       </c>
       <c r="AJ30">
-        <v>0.19910980814870866</v>
+        <v>0.24888726018588581</v>
       </c>
       <c r="AK30">
         <v>6.1295580940860975E-2</v>
@@ -4430,14 +4461,14 @@
         <v>1.6086937077948213E-2</v>
       </c>
       <c r="AN30">
-        <v>0.86374011343030266</v>
+        <v>0.7017888421621209</v>
       </c>
       <c r="AP30">
         <f t="shared" si="10"/>
-        <v>1.8318426210444911</v>
+        <v>1.8370381698679399</v>
       </c>
       <c r="AS30">
-        <v>0.41641426305427376</v>
+        <v>0.39773862253784176</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.3">
@@ -4451,13 +4482,13 @@
         <v>2.4922201385793021E-2</v>
       </c>
       <c r="AH31">
-        <v>0.74177521704309268</v>
+        <v>0.81595273874740193</v>
       </c>
       <c r="AI31">
-        <v>0.26405219724595774</v>
+        <v>0.2933913302732864</v>
       </c>
       <c r="AJ31">
-        <v>0.15163793468346953</v>
+        <v>0.18954741835433692</v>
       </c>
       <c r="AK31">
         <v>0.55166022846774876</v>
@@ -4469,14 +4500,14 @@
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>2.2960955283768687</v>
+        <v>1.8655776168062057</v>
       </c>
       <c r="AP31">
         <f t="shared" si="10"/>
-        <v>2.3239329684956593</v>
+        <v>2.2608787382106299</v>
       </c>
       <c r="AS31">
-        <v>0.25964484151006695</v>
+        <v>0.2587851654451333</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.3">
@@ -4490,13 +4521,13 @@
         <v>5.5480134625260887E-3</v>
       </c>
       <c r="AH32">
-        <v>1.0189653548027497</v>
+        <v>1.1208618902830247</v>
       </c>
       <c r="AI32">
-        <v>0.26405219724595774</v>
+        <v>0.2933913302732864</v>
       </c>
       <c r="AJ32">
-        <v>0.290714146967125</v>
+        <v>0.36339268370890626</v>
       </c>
       <c r="AK32">
         <v>0.15691668720860411</v>
@@ -4508,14 +4539,14 @@
         <v>4.0217342694870515E-3</v>
       </c>
       <c r="AN32">
-        <v>2.2960955283768687</v>
+        <v>1.8655776168062057</v>
       </c>
       <c r="AP32">
         <f t="shared" si="10"/>
-        <v>2.6252989548619503</v>
+        <v>2.5817805669882117</v>
       </c>
       <c r="AS32">
-        <v>0.16363610734071599</v>
+        <v>0.15357952486576232</v>
       </c>
     </row>
     <row r="33" spans="31:45" x14ac:dyDescent="0.3">
@@ -4529,13 +4560,13 @@
         <v>0.11033658661469485</v>
       </c>
       <c r="AH33">
-        <v>1.0189653548027497</v>
+        <v>1.1208618902830247</v>
       </c>
       <c r="AI33">
-        <v>6.6013049311489436E-2</v>
+        <v>7.33478325683216E-2</v>
       </c>
       <c r="AJ33">
-        <v>0.45354496679552808</v>
+        <v>0.56693120849441014</v>
       </c>
       <c r="AK33">
         <v>6.0928359115444274E-2</v>
@@ -4547,14 +4578,14 @@
         <v>6.4347748311792852E-2</v>
       </c>
       <c r="AN33">
-        <v>2.2960955283768687</v>
+        <v>1.8655776168062057</v>
       </c>
       <c r="AP33">
         <f t="shared" si="10"/>
-        <v>2.1220632047551993</v>
+        <v>2.0724989490567256</v>
       </c>
       <c r="AS33">
-        <v>0.32395621492508409</v>
+        <v>0.32054429117414163</v>
       </c>
     </row>
     <row r="34" spans="31:45" x14ac:dyDescent="0.3">
@@ -4568,13 +4599,13 @@
         <v>7.502279771121606E-2</v>
       </c>
       <c r="AH34">
-        <v>0.74177521704309268</v>
+        <v>0.81595273874740193</v>
       </c>
       <c r="AI34">
-        <v>6.6013049311489436E-2</v>
+        <v>7.33478325683216E-2</v>
       </c>
       <c r="AJ34">
-        <v>0.41943072577853707</v>
+        <v>0.52428840722317138</v>
       </c>
       <c r="AK34">
         <v>0.1201393386440875</v>
@@ -4586,14 +4617,14 @@
         <v>4.0217342694870515E-3</v>
       </c>
       <c r="AN34">
-        <v>0.86374011343030266</v>
+        <v>0.7017888421621209</v>
       </c>
       <c r="AP34">
         <f t="shared" si="10"/>
-        <v>1.6534733004006905</v>
+        <v>1.6608409527331467</v>
       </c>
       <c r="AS34">
-        <v>0.47323889975645295</v>
+        <v>0.45550376886805011</v>
       </c>
     </row>
     <row r="35" spans="31:45" x14ac:dyDescent="0.3">
@@ -4607,13 +4638,13 @@
         <v>1.5459270721318608E-2</v>
       </c>
       <c r="AH35">
-        <v>1.0189653548027497</v>
+        <v>1.1208618902830247</v>
       </c>
       <c r="AI35">
-        <v>0.26405219724595774</v>
+        <v>0.2933913302732864</v>
       </c>
       <c r="AJ35">
-        <v>0.42278213655553848</v>
+        <v>0.52847767069442309</v>
       </c>
       <c r="AK35">
         <v>0.13426184049286188</v>
@@ -4625,14 +4656,14 @@
         <v>3.6195608425383476E-2</v>
       </c>
       <c r="AN35">
-        <v>1.8874925730159362</v>
+        <v>1.533587715575448</v>
       </c>
       <c r="AP35">
         <f t="shared" si="10"/>
-        <v>2.3503384843692494</v>
+        <v>2.3253209103934753</v>
       </c>
       <c r="AS35">
-        <v>0.25123261097045069</v>
+        <v>0.23765820574331931</v>
       </c>
     </row>
     <row r="36" spans="31:45" x14ac:dyDescent="0.3">
@@ -4646,13 +4677,13 @@
         <v>2.5802882227685701E-3</v>
       </c>
       <c r="AH36">
-        <v>1.2556747546222593</v>
+        <v>1.3812422300844851</v>
       </c>
       <c r="AI36">
-        <v>0.59411744380340481</v>
+        <v>0.66013049311489436</v>
       </c>
       <c r="AJ36">
-        <v>0.17673150618369257</v>
+        <v>0.22091438272961572</v>
       </c>
       <c r="AK36">
         <v>0.55166022846774876</v>
@@ -4664,14 +4695,14 @@
         <v>0.90489021063458674</v>
       </c>
       <c r="AN36">
-        <v>3.6068089046645353</v>
+        <v>2.930532235039935</v>
       </c>
       <c r="AP36">
         <f t="shared" si="10"/>
-        <v>2.7267358099922894</v>
+        <v>2.6447258665482414</v>
       </c>
       <c r="AS36">
-        <v>0.13132050272783591</v>
+        <v>0.13294330541229449</v>
       </c>
     </row>
     <row r="37" spans="31:45" x14ac:dyDescent="0.3">
@@ -4685,13 +4716,13 @@
         <v>0.32818239929651194</v>
       </c>
       <c r="AH37">
-        <v>0.31912886837985288</v>
+        <v>0.35104175521783815</v>
       </c>
       <c r="AI37">
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>0.3076619098617272</v>
+        <v>0.38457738732715901</v>
       </c>
       <c r="AK37">
         <v>4.9649420562097382E-2</v>
@@ -4707,10 +4738,10 @@
       </c>
       <c r="AP37">
         <f t="shared" si="10"/>
-        <v>1.3419796212995707</v>
+        <v>1.3819325845665396</v>
       </c>
       <c r="AS37">
-        <v>0.57247409943125482</v>
+        <v>0.54694211824639694</v>
       </c>
     </row>
     <row r="38" spans="31:45" x14ac:dyDescent="0.3">
@@ -4724,13 +4755,13 @@
         <v>0.21588932283252477</v>
       </c>
       <c r="AH38">
-        <v>1.0189653548027497</v>
+        <v>1.1208618902830247</v>
       </c>
       <c r="AI38">
-        <v>0.26405219724595774</v>
+        <v>0.2933913302732864</v>
       </c>
       <c r="AJ38">
-        <v>0.20374550407423883</v>
+        <v>0.25468188009279852</v>
       </c>
       <c r="AK38">
         <v>0.27031351194919695</v>
@@ -4742,14 +4773,14 @@
         <v>9.0489021063458689E-3</v>
       </c>
       <c r="AN38">
-        <v>2.2960955283768687</v>
+        <v>1.8655776168062057</v>
       </c>
       <c r="AP38">
         <f t="shared" si="10"/>
-        <v>2.0959793696685485</v>
+        <v>2.0358741736737231</v>
       </c>
       <c r="AS38">
-        <v>0.33226596487114357</v>
+        <v>0.33255149278443519</v>
       </c>
     </row>
     <row r="39" spans="31:45" x14ac:dyDescent="0.3">
@@ -4769,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="AJ39">
-        <v>0.73853624311949007</v>
+        <v>0.92317030389936261</v>
       </c>
       <c r="AK39">
         <v>6.1295580940860975E-2</v>
@@ -4781,14 +4812,14 @@
         <v>1.005433567371762E-3</v>
       </c>
       <c r="AN39">
-        <v>2.3577329372275186</v>
+        <v>1.9156580114973589</v>
       </c>
       <c r="AP39">
         <f t="shared" si="10"/>
-        <v>2.682813951087661</v>
+        <v>2.6343974322794006</v>
       </c>
       <c r="AS39">
-        <v>0.14531306415337397</v>
+        <v>0.13632941744404747</v>
       </c>
     </row>
     <row r="40" spans="31:45" x14ac:dyDescent="0.3">
@@ -4805,10 +4836,10 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>0.26405219724595774</v>
+        <v>0.2933913302732864</v>
       </c>
       <c r="AJ40">
-        <v>0.53329067265369878</v>
+        <v>0.66661334081712353</v>
       </c>
       <c r="AK40">
         <v>0.15263114537154288</v>
@@ -4820,14 +4851,14 @@
         <v>1.005433567371762E-3</v>
       </c>
       <c r="AN40">
-        <v>2.3577329372275186</v>
+        <v>1.9156580114973589</v>
       </c>
       <c r="AP40">
         <f t="shared" si="10"/>
-        <v>2.3957271533795721</v>
+        <v>2.3366847174791854</v>
       </c>
       <c r="AS40">
-        <v>0.23677275533161224</v>
+        <v>0.23393265326383772</v>
       </c>
     </row>
     <row r="41" spans="31:45" x14ac:dyDescent="0.3">
@@ -4841,13 +4872,13 @@
         <v>0.18200847625447594</v>
       </c>
       <c r="AH41">
-        <v>1.0189653548027497</v>
+        <v>1.1208618902830247</v>
       </c>
       <c r="AI41">
-        <v>0.59411744380340481</v>
+        <v>0.66013049311489436</v>
       </c>
       <c r="AJ41">
-        <v>0.23768904052320128</v>
+        <v>0.2971113006540016</v>
       </c>
       <c r="AK41">
         <v>0.2247846868158489</v>
@@ -4859,14 +4890,14 @@
         <v>8.1440118957112825E-2</v>
       </c>
       <c r="AN41">
-        <v>3.6068089046645353</v>
+        <v>2.930532235039935</v>
       </c>
       <c r="AP41">
         <f t="shared" si="10"/>
-        <v>2.7870264641015572</v>
+        <v>2.7052858789600025</v>
       </c>
       <c r="AS41">
-        <v>0.11211319452073942</v>
+        <v>0.11308908730595291</v>
       </c>
     </row>
     <row r="42" spans="31:45" x14ac:dyDescent="0.3">
@@ -4880,13 +4911,13 @@
         <v>1.0764290305213504</v>
       </c>
       <c r="AH42">
-        <v>0.31912886837985288</v>
+        <v>0.35104175521783815</v>
       </c>
       <c r="AI42">
         <v>0</v>
       </c>
       <c r="AJ42">
-        <v>0.73853624311949007</v>
+        <v>0.92317030389936261</v>
       </c>
       <c r="AK42">
         <v>0</v>
@@ -4898,14 +4929,14 @@
         <v>4.0217342694870515E-3</v>
       </c>
       <c r="AN42">
-        <v>2.2960955283768687</v>
+        <v>1.8655776168062057</v>
       </c>
       <c r="AP42">
         <f t="shared" si="10"/>
-        <v>2.2470400850328289</v>
+        <v>2.1989129541188159</v>
       </c>
       <c r="AS42">
-        <v>0.28414126360769854</v>
+        <v>0.27910025693032625</v>
       </c>
     </row>
     <row r="43" spans="31:45" x14ac:dyDescent="0.3">
@@ -4919,13 +4950,13 @@
         <v>0.38751445098768611</v>
       </c>
       <c r="AH43">
-        <v>0.31912886837985288</v>
+        <v>0.35104175521783815</v>
       </c>
       <c r="AI43">
         <v>0</v>
       </c>
       <c r="AJ43">
-        <v>0.67770673720600305</v>
+        <v>0.84713342150750381</v>
       </c>
       <c r="AK43">
         <v>0</v>
@@ -4937,14 +4968,14 @@
         <v>4.0217342694870515E-3</v>
       </c>
       <c r="AN43">
-        <v>2.2960955283768687</v>
+        <v>1.8655776168062057</v>
       </c>
       <c r="AP43">
         <f t="shared" si="10"/>
-        <v>1.9552130268530465</v>
+        <v>1.8957003033034192</v>
       </c>
       <c r="AS43">
-        <v>0.37711110001834258</v>
+        <v>0.37850661208361125</v>
       </c>
     </row>
     <row r="44" spans="31:45" x14ac:dyDescent="0.3">
@@ -4958,13 +4989,13 @@
         <v>3.6443581257330847E-2</v>
       </c>
       <c r="AH44">
-        <v>1.0189653548027497</v>
+        <v>1.1208618902830247</v>
       </c>
       <c r="AI44">
-        <v>0.41258155819680903</v>
+        <v>0.45842395355201004</v>
       </c>
       <c r="AJ44">
-        <v>0.36138583813101849</v>
+        <v>0.4517322976637731</v>
       </c>
       <c r="AK44">
         <v>0.13426184049286188</v>
@@ -4976,14 +5007,14 @@
         <v>0.12165746165198338</v>
       </c>
       <c r="AN44">
-        <v>2.3577329372275186</v>
+        <v>1.9156580114973589</v>
       </c>
       <c r="AP44">
         <f t="shared" si="10"/>
-        <v>2.1932437624688692</v>
+        <v>2.1462359297725571</v>
       </c>
       <c r="AS44">
-        <v>0.30127961719101981</v>
+        <v>0.29637008711881174</v>
       </c>
     </row>
     <row r="45" spans="31:45" x14ac:dyDescent="0.3">
@@ -4997,13 +5028,13 @@
         <v>1.3119689252639097E-2</v>
       </c>
       <c r="AH45">
-        <v>1.0189653548027497</v>
+        <v>1.1208618902830247</v>
       </c>
       <c r="AI45">
-        <v>0.26405219724595774</v>
+        <v>0.2933913302732864</v>
       </c>
       <c r="AJ45">
-        <v>0.22772416136452425</v>
+        <v>0.28465520170565534</v>
       </c>
       <c r="AK45">
         <v>0.23909107540744587</v>
@@ -5015,14 +5046,14 @@
         <v>0.1447824337015339</v>
       </c>
       <c r="AN45">
-        <v>2.3577329372275186</v>
+        <v>1.9156580114973589</v>
       </c>
       <c r="AP45">
         <f t="shared" si="10"/>
-        <v>2.2383618715367666</v>
+        <v>2.1809070707089178</v>
       </c>
       <c r="AS45">
-        <v>0.28690595614203007</v>
+        <v>0.285003372239927</v>
       </c>
     </row>
     <row r="46" spans="31:45" x14ac:dyDescent="0.3">
@@ -5036,13 +5067,13 @@
         <v>0.12385030745024402</v>
       </c>
       <c r="AH46">
-        <v>0.74177521704309268</v>
+        <v>0.81595273874740193</v>
       </c>
       <c r="AI46">
-        <v>6.6013049311489436E-2</v>
+        <v>7.33478325683216E-2</v>
       </c>
       <c r="AJ46">
-        <v>0.41276791310766575</v>
+        <v>0.5159598913845822</v>
       </c>
       <c r="AK46">
         <v>4.3250161911871504E-2</v>
@@ -5054,14 +5085,14 @@
         <v>4.0217342694870515E-3</v>
       </c>
       <c r="AN46">
-        <v>1.8874925730159362</v>
+        <v>1.533587715575448</v>
       </c>
       <c r="AP46">
         <f t="shared" si="10"/>
-        <v>1.8355721998543286</v>
+        <v>1.7888892438257962</v>
       </c>
       <c r="AS46">
-        <v>0.41522609930416121</v>
+        <v>0.41352394425685091</v>
       </c>
     </row>
     <row r="47" spans="31:45" x14ac:dyDescent="0.3">
@@ -5075,13 +5106,13 @@
         <v>0.57049016331182745</v>
       </c>
       <c r="AH47">
-        <v>0.31912886837985288</v>
+        <v>0.35104175521783815</v>
       </c>
       <c r="AI47">
         <v>0</v>
       </c>
       <c r="AJ47">
-        <v>0.64412061344635063</v>
+        <v>0.80515076680793829</v>
       </c>
       <c r="AK47">
         <v>6.1295580940860975E-2</v>
@@ -5093,14 +5124,14 @@
         <v>4.9266244801216393E-2</v>
       </c>
       <c r="AN47">
-        <v>1.8874925730159362</v>
+        <v>1.533587715575448</v>
       </c>
       <c r="AP47">
         <f t="shared" si="10"/>
-        <v>2.1983575382069231</v>
+        <v>2.1614379585244374</v>
       </c>
       <c r="AS47">
-        <v>0.2996504780125866</v>
+        <v>0.29138619787442821</v>
       </c>
     </row>
     <row r="48" spans="31:45" x14ac:dyDescent="0.3">
@@ -5114,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="AH48">
-        <v>1.3400249247540494</v>
+        <v>1.4740274172294543</v>
       </c>
       <c r="AI48">
-        <v>1.054146888472042</v>
+        <v>1.1712743205244911</v>
       </c>
       <c r="AJ48">
         <v>0</v>
@@ -5132,14 +5163,14 @@
         <v>0.6796730915433119</v>
       </c>
       <c r="AN48">
-        <v>4.0007168486438562</v>
+        <v>3.2505824395231331</v>
       </c>
       <c r="AP48">
         <f t="shared" si="10"/>
-        <v>3.3327295790299671</v>
+        <v>3.2570050602276308</v>
       </c>
       <c r="AS48">
-        <v>-6.1736103896332217E-2</v>
+        <v>-6.778856648086129E-2</v>
       </c>
     </row>
     <row r="49" spans="31:45" x14ac:dyDescent="0.3">
@@ -5153,13 +5184,13 @@
         <v>2.7556583181346572E-2</v>
       </c>
       <c r="AH49">
-        <v>1.0189653548027497</v>
+        <v>1.1208618902830247</v>
       </c>
       <c r="AI49">
-        <v>0.41258155819680903</v>
+        <v>0.45842395355201004</v>
       </c>
       <c r="AJ49">
-        <v>0.48899283725024384</v>
+        <v>0.61124104656280487</v>
       </c>
       <c r="AK49">
         <v>4.3250161911871504E-2</v>
@@ -5171,14 +5202,14 @@
         <v>0.16991827288582798</v>
       </c>
       <c r="AN49">
-        <v>1.8874925730159362</v>
+        <v>1.533587715575448</v>
       </c>
       <c r="AP49">
         <f t="shared" si="10"/>
-        <v>2.1759410786576785</v>
+        <v>2.1565717842208478</v>
       </c>
       <c r="AS49">
-        <v>0.30679188083588205</v>
+        <v>0.29298154242802643</v>
       </c>
     </row>
     <row r="50" spans="31:45" x14ac:dyDescent="0.3">
@@ -5192,13 +5223,13 @@
         <v>1.5088882686778121E-3</v>
       </c>
       <c r="AH50">
-        <v>1.2975277209671576</v>
+        <v>1.4272804930638734</v>
       </c>
       <c r="AI50">
-        <v>0.92830850594282022</v>
+        <v>1.0314538954920225</v>
       </c>
       <c r="AJ50">
-        <v>4.795091315926979E-2</v>
+        <v>5.993864144908724E-2</v>
       </c>
       <c r="AK50">
         <v>0.98072929505377571</v>
@@ -5210,14 +5241,14 @@
         <v>1.0295639729886858</v>
       </c>
       <c r="AN50">
-        <v>3.7619229136926617</v>
+        <v>3.0565623673752875</v>
       </c>
       <c r="AP50">
         <f t="shared" si="10"/>
-        <v>2.9610106565555161</v>
+        <v>2.8822056574529324</v>
       </c>
       <c r="AS50">
-        <v>5.6685565529195903E-2</v>
+        <v>5.5087053791803564E-2</v>
       </c>
     </row>
   </sheetData>

--- a/DaneTelefonow — kopia.xlsx
+++ b/DaneTelefonow — kopia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RMapps\Git\Statystyczna-analiza-danych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapar\Python\BOT\Statystyczna-analiza-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72903CAB-026C-4D1C-8582-EF7C0FF2A190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554751DC-F53B-40C4-B3B8-6D3FD5004361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DaneTelefonow — kopia" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="41">
   <si>
     <t>Telefon\zmienne</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>model:</t>
+  </si>
+  <si>
+    <t>wsp zmiennosc</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -675,56 +678,61 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akcent 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akcent 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akcent 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akcent 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akcent 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akcent 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Dobry" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutralny" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Tekst objaśnienia" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Zły" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -740,9 +748,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -780,7 +788,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -886,7 +894,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1036,22 +1044,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS50"/>
+  <dimension ref="A1:AS55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:K57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -1250,7 +1259,7 @@
         <v>8.0188749230731007E-2</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:AE2" si="0">(M2-M$26)/M$27</f>
+        <f t="shared" ref="W2:AD2" si="0">(M2-M$26)/M$27</f>
         <v>-0.47360138210820357</v>
       </c>
       <c r="X2">
@@ -4385,7 +4394,7 @@
         <v>2.246724830536269</v>
       </c>
       <c r="AQ28">
-        <f t="shared" ref="AQ3:AQ28" si="14">AVERAGE(AP28:AP50)+2*_xlfn.STDEV.P(AP28:AP50)</f>
+        <f t="shared" ref="AQ28" si="14">AVERAGE(AP28:AP50)+2*_xlfn.STDEV.P(AP28:AP50)</f>
         <v>3.0502340654965314</v>
       </c>
       <c r="AS28" cm="1">
@@ -4511,6 +4520,36 @@
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AE32" s="1" t="s">
         <v>14</v>
       </c>
@@ -4549,7 +4588,37 @@
         <v>0.15357952486576232</v>
       </c>
     </row>
-    <row r="33" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7.28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4192</v>
+      </c>
+      <c r="D33" s="1">
+        <v>128</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>171</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3349</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3460</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>48</v>
+      </c>
       <c r="AE33" s="1" t="s">
         <v>15</v>
       </c>
@@ -4588,7 +4657,37 @@
         <v>0.32054429117414163</v>
       </c>
     </row>
-    <row r="34" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1599</v>
+      </c>
+      <c r="D34" s="1">
+        <v>128</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>202</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>50</v>
+      </c>
       <c r="AE34" s="1" t="s">
         <v>16</v>
       </c>
@@ -4627,7 +4726,37 @@
         <v>0.45550376886805011</v>
       </c>
     </row>
-    <row r="35" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="C35" s="1">
+        <v>899</v>
+      </c>
+      <c r="D35" s="1">
+        <v>128</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
+        <v>166</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4</v>
+      </c>
+      <c r="J35" s="1">
+        <v>108</v>
+      </c>
       <c r="AE35" s="1" t="s">
         <v>17</v>
       </c>
@@ -4666,7 +4795,37 @@
         <v>0.23765820574331931</v>
       </c>
     </row>
-    <row r="36" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D36" s="1">
+        <v>256</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1">
+        <v>155</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>50</v>
+      </c>
       <c r="AE36" s="1" t="s">
         <v>18</v>
       </c>
@@ -4705,7 +4864,37 @@
         <v>0.13294330541229449</v>
       </c>
     </row>
-    <row r="37" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>697.7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>128</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1">
+        <v>184</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4400</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>50</v>
+      </c>
       <c r="AE37" s="1" t="s">
         <v>19</v>
       </c>
@@ -4744,7 +4933,37 @@
         <v>0.54694211824639694</v>
       </c>
     </row>
-    <row r="38" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7.51</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D38" s="1">
+        <v>128</v>
+      </c>
+      <c r="E38" s="1">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1">
+        <v>210</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5003</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I38" s="1">
+        <v>8</v>
+      </c>
+      <c r="J38" s="1">
+        <v>50</v>
+      </c>
       <c r="AE38" s="1" t="s">
         <v>20</v>
       </c>
@@ -4783,7 +5002,37 @@
         <v>0.33255149278443519</v>
       </c>
     </row>
-    <row r="39" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7.78</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1899</v>
+      </c>
+      <c r="D39" s="1">
+        <v>256</v>
+      </c>
+      <c r="E39" s="1">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1">
+        <v>205</v>
+      </c>
+      <c r="G39" s="1">
+        <v>4600</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>108</v>
+      </c>
       <c r="AE39" s="1" t="s">
         <v>21</v>
       </c>
@@ -4822,7 +5071,37 @@
         <v>0.13632941744404747</v>
       </c>
     </row>
-    <row r="40" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="C40" s="1">
+        <v>998</v>
+      </c>
+      <c r="D40" s="1">
+        <v>128</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
+        <v>205.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4520</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I40" s="1">
+        <v>6</v>
+      </c>
+      <c r="J40" s="1">
+        <v>64</v>
+      </c>
       <c r="AE40" s="1" t="s">
         <v>22</v>
       </c>
@@ -4861,7 +5140,37 @@
         <v>0.23393265326383772</v>
       </c>
     </row>
-    <row r="41" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6.81</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3700</v>
+      </c>
+      <c r="D41" s="1">
+        <v>512</v>
+      </c>
+      <c r="E41" s="1">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1">
+        <v>187</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5100</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>200</v>
+      </c>
       <c r="AE41" s="1" t="s">
         <v>23</v>
       </c>
@@ -4900,7 +5209,37 @@
         <v>0.11308908730595291</v>
       </c>
     </row>
-    <row r="42" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3048</v>
+      </c>
+      <c r="D42" s="1">
+        <v>128</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1">
+        <v>167</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3900</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3360</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>50</v>
+      </c>
       <c r="AE42" s="1" t="s">
         <v>24</v>
       </c>
@@ -4939,7 +5278,37 @@
         <v>0.27910025693032625</v>
       </c>
     </row>
-    <row r="43" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="1">
+        <v>6.79</v>
+      </c>
+      <c r="C43" s="1">
+        <v>11000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>16</v>
+      </c>
+      <c r="F43" s="1">
+        <v>246</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2620</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>48</v>
+      </c>
       <c r="AE43" s="1" t="s">
         <v>25</v>
       </c>
@@ -4978,7 +5347,37 @@
         <v>0.37850661208361125</v>
       </c>
     </row>
-    <row r="44" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9504</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1">
+        <v>221</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4422</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3770</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>48</v>
+      </c>
       <c r="AE44" s="1" t="s">
         <v>26</v>
       </c>
@@ -5017,7 +5416,37 @@
         <v>0.29637008711881174</v>
       </c>
     </row>
-    <row r="45" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5.48</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2819</v>
+      </c>
+      <c r="D45" s="1">
+        <v>128</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>174</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4085</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3220</v>
+      </c>
+      <c r="I45" s="1">
+        <v>9</v>
+      </c>
+      <c r="J45" s="1">
+        <v>12</v>
+      </c>
       <c r="AE45" s="1" t="s">
         <v>27</v>
       </c>
@@ -5056,7 +5485,37 @@
         <v>0.285003372239927</v>
       </c>
     </row>
-    <row r="46" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6.83</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6499</v>
+      </c>
+      <c r="D46" s="1">
+        <v>512</v>
+      </c>
+      <c r="E46" s="1">
+        <v>16</v>
+      </c>
+      <c r="F46" s="1">
+        <v>246</v>
+      </c>
+      <c r="G46" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H46" s="1">
+        <v>4200</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>50</v>
+      </c>
       <c r="AE46" s="1" t="s">
         <v>28</v>
       </c>
@@ -5095,7 +5554,37 @@
         <v>0.41352394425685091</v>
       </c>
     </row>
-    <row r="47" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8.23</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3999</v>
+      </c>
+      <c r="D47" s="1">
+        <v>512</v>
+      </c>
+      <c r="E47" s="1">
+        <v>16</v>
+      </c>
+      <c r="F47" s="1">
+        <v>239</v>
+      </c>
+      <c r="G47" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3200</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>50</v>
+      </c>
       <c r="AE47" s="1" t="s">
         <v>29</v>
       </c>
@@ -5134,7 +5623,37 @@
         <v>0.29138619787442821</v>
       </c>
     </row>
-    <row r="48" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1">
+        <v>7.47</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1399</v>
+      </c>
+      <c r="D48" s="1">
+        <v>128</v>
+      </c>
+      <c r="E48" s="1">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1">
+        <v>196</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4520</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3200</v>
+      </c>
+      <c r="I48" s="1">
+        <v>11</v>
+      </c>
+      <c r="J48" s="1">
+        <v>48</v>
+      </c>
       <c r="AE48" s="1" t="s">
         <v>30</v>
       </c>
@@ -5173,7 +5692,37 @@
         <v>-6.778856648086129E-2</v>
       </c>
     </row>
-    <row r="49" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7.28</v>
+      </c>
+      <c r="C49" s="1">
+        <v>939</v>
+      </c>
+      <c r="D49" s="1">
+        <v>128</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1">
+        <v>172</v>
+      </c>
+      <c r="G49" s="1">
+        <v>4025</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2100</v>
+      </c>
+      <c r="I49" s="1">
+        <v>12</v>
+      </c>
+      <c r="J49" s="1">
+        <v>48</v>
+      </c>
       <c r="AE49" s="1" t="s">
         <v>31</v>
       </c>
@@ -5212,7 +5761,37 @@
         <v>0.29298154242802643</v>
       </c>
     </row>
-    <row r="50" spans="31:45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1">
+        <v>8.64</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2369</v>
+      </c>
+      <c r="D50" s="1">
+        <v>256</v>
+      </c>
+      <c r="E50" s="1">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1">
+        <v>204</v>
+      </c>
+      <c r="G50" s="1">
+        <v>5160</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3200</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>64</v>
+      </c>
       <c r="AE50" s="1" t="s">
         <v>32</v>
       </c>
@@ -5249,6 +5828,143 @@
       </c>
       <c r="AS50">
         <v>5.5087053791803564E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4799</v>
+      </c>
+      <c r="D51" s="1">
+        <v>512</v>
+      </c>
+      <c r="E51" s="1">
+        <v>16</v>
+      </c>
+      <c r="F51" s="1">
+        <v>235</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I51" s="1">
+        <v>7</v>
+      </c>
+      <c r="J51" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1249</v>
+      </c>
+      <c r="D52" s="1">
+        <v>128</v>
+      </c>
+      <c r="E52" s="1">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
+        <v>215</v>
+      </c>
+      <c r="G52" s="1">
+        <v>5160</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2300</v>
+      </c>
+      <c r="I52" s="1">
+        <v>13</v>
+      </c>
+      <c r="J52" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="2">
+        <f>_xlfn.STDEV.P(B33:B52)/AVERAGE(B33:B52)</f>
+        <v>0.13562876407019236</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" ref="C55:J55" si="15">_xlfn.STDEV.P(C33:C52)/AVERAGE(C33:C52)</f>
+        <v>0.85420691177665564</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="15"/>
+        <v>0.87663683805534542</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="15"/>
+        <v>0.38841673754322836</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="15"/>
+        <v>0.13614115095060075</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="15"/>
+        <v>0.15774619885044186</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="15"/>
+        <v>0.22433718255810811</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="15"/>
+        <v>0.88471241055086147</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="15"/>
+        <v>0.58446622057711306</v>
       </c>
     </row>
   </sheetData>

--- a/DaneTelefonow — kopia.xlsx
+++ b/DaneTelefonow — kopia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapar\Python\BOT\Statystyczna-analiza-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554751DC-F53B-40C4-B3B8-6D3FD5004361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEAB1DF-9D0F-424B-8BFD-FEDAD6AED309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DaneTelefonow — kopia" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="53">
   <si>
     <t>Telefon\zmienne</t>
   </si>
@@ -178,6 +178,42 @@
   </si>
   <si>
     <t>wsp zmiennosc</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>wagi takie same</t>
+  </si>
+  <si>
+    <t>[0.15,0.5,0.08,0.07,,0.07,0.02,0.04,0.07]</t>
+  </si>
+  <si>
+    <t>konsument z mottem "Za darmo to uczciwa cena\</t>
+  </si>
+  <si>
+    <t>konsument gamer</t>
+  </si>
+  <si>
+    <t>0.05,0.05,0.2,0.2,,0.05,0.25,0.15,0.05</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>konsument stary pryk</t>
+  </si>
+  <si>
+    <t>0.3,0.14,0.07,0.07,,0.2,0.05,0.07,0.1</t>
+  </si>
+  <si>
+    <t>konsument fotograf</t>
+  </si>
+  <si>
+    <t>0.04,0.04,0.17,0.04,0.15,0.03,0.1,0.43</t>
   </si>
 </sst>
 </file>
@@ -734,7 +770,23 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -745,6 +797,77 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98859848-2929-42A4-812A-588EEE2E5112}" name="Table1" displayName="Table1" ref="AL60:AM83" totalsRowShown="0">
+  <autoFilter ref="AL60:AM83" xr:uid="{98859848-2929-42A4-812A-588EEE2E5112}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AL61:AM83">
+    <sortCondition descending="1" ref="AM60:AM83"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5E4E41F0-21EB-49E0-8560-CDECE36A53F5}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{6D7A0800-91FA-4488-92E1-55BF25492995}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{51176B32-323B-4A07-9974-7CC5E3BD6AD8}" name="Table4" displayName="Table4" ref="AO60:AP83" totalsRowShown="0">
+  <autoFilter ref="AO60:AP83" xr:uid="{51176B32-323B-4A07-9974-7CC5E3BD6AD8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AO61:AP83">
+    <sortCondition descending="1" ref="AP60:AP83"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{46D03E15-446A-4A13-8535-F90E01DC4960}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{48709206-E7EE-4CD4-B18A-B22993D3B533}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEE010AA-0A11-469F-9FC0-8D8F979DE660}" name="Table5" displayName="Table5" ref="AU60:AV83" totalsRowShown="0">
+  <autoFilter ref="AU60:AV83" xr:uid="{EEE010AA-0A11-469F-9FC0-8D8F979DE660}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AU61:AV83">
+    <sortCondition descending="1" ref="AV60:AV83"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{505018E7-C095-4CE5-80A5-CA10C7A7C508}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EDF138DE-7760-498E-9B46-7CFCA4E3D670}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9B42DF96-68F6-429A-87D1-367886525886}" name="Table6" displayName="Table6" ref="AY60:BA83" totalsRowShown="0">
+  <autoFilter ref="AY60:BA83" xr:uid="{9B42DF96-68F6-429A-87D1-367886525886}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AY61:BA83">
+    <sortCondition descending="1" ref="BA60:BA83"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E0822194-B129-49F6-BB82-DF7EAB6292EC}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{F275683F-D9F1-44D3-A72E-01155F1B8C41}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{2CE8C2CB-C79B-4BEF-A913-D26C41AD3FB5}" name="Column3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{037BF6BC-0AE2-44C4-A704-895876181A27}" name="Table7" displayName="Table7" ref="BD60:BE83" totalsRowShown="0">
+  <autoFilter ref="BD60:BE83" xr:uid="{037BF6BC-0AE2-44C4-A704-895876181A27}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BD61:BE83">
+    <sortCondition descending="1" ref="BE60:BE83"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7AB86428-F3FB-40C8-876F-08F0AE62BB59}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{222B7C09-346D-486B-8B48-CBC0D7856668}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1044,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS55"/>
+  <dimension ref="A1:BE83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:K57"/>
+    <sheetView tabSelected="1" topLeftCell="AL52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ61" sqref="AZ61:BA83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1190,14 @@
     <col min="35" max="37" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.33203125" customWidth="1"/>
+    <col min="41" max="41" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.6640625" customWidth="1"/>
+    <col min="47" max="48" width="10.6640625" customWidth="1"/>
+    <col min="51" max="51" width="10.6640625" customWidth="1"/>
+    <col min="52" max="52" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.6640625" customWidth="1"/>
+    <col min="56" max="57" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
@@ -1270,10 +1400,6 @@
         <f t="shared" si="0"/>
         <v>-0.6424705728229545</v>
       </c>
-      <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>0.48288553409574209</v>
-      </c>
       <c r="AA2">
         <f t="shared" si="0"/>
         <v>-0.8531379186098732</v>
@@ -1304,7 +1430,7 @@
         <v>4.5842395355201004</v>
       </c>
       <c r="AJ2">
-        <v>5.5705434887862317</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>5.3846643128970477</v>
@@ -1320,15 +1446,15 @@
       </c>
       <c r="AP2">
         <f>SQRT(SUM(AF2:AN2))</f>
-        <v>6.7378236704485008</v>
+        <v>6.3109210362093648</v>
       </c>
       <c r="AQ2">
         <f>AVERAGE(AP2:AP24)+2*_xlfn.STDEV.P(AP2:AP24)</f>
-        <v>9.2833887072095713</v>
+        <v>9.1042366257381389</v>
       </c>
       <c r="AS2" cm="1">
         <f t="array" ref="AS2:AS24">1-(AP2:AP24/$AQ$2)</f>
-        <v>0.27420644734871003</v>
+        <v>0.30681491533644123</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.3">
@@ -1405,24 +1531,20 @@
         <f t="shared" ref="Y3:Y24" si="4">(O3-O$26)/O$27</f>
         <v>-0.21425382697944587</v>
       </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z24" si="5">(P3-P$26)/P$27</f>
-        <v>-0.31761989675816116</v>
-      </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA24" si="6">(Q3-Q$26)/Q$27</f>
+        <f t="shared" ref="AA3:AA24" si="5">(Q3-Q$26)/Q$27</f>
         <v>0.59202451094683506</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB24" si="7">(R3-R$26)/R$27</f>
+        <f t="shared" ref="AB3:AB24" si="6">(R3-R$26)/R$27</f>
         <v>-0.22604953652082765</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC24" si="8">(S3-S$26)/S$27</f>
+        <f t="shared" ref="AC3:AC24" si="7">(S3-S$26)/S$27</f>
         <v>0.51542548624217677</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD24" si="9">(T3-T$26)/T$27</f>
+        <f t="shared" ref="AD3:AD24" si="8">(T3-T$26)/T$27</f>
         <v>-0.16031300164873477</v>
       </c>
       <c r="AF3">
@@ -1438,7 +1560,7 @@
         <v>2.9339133027328641</v>
       </c>
       <c r="AJ3">
-        <v>9.9900580824612515</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0.76619476176076218</v>
@@ -1453,11 +1575,11 @@
         <v>14.350597052355416</v>
       </c>
       <c r="AP3">
-        <f t="shared" ref="AP3:AP50" si="10">SQRT(SUM(AF3:AN3))</f>
-        <v>6.5974509616026804</v>
+        <f t="shared" ref="AP3:AP50" si="9">SQRT(SUM(AF3:AN3))</f>
+        <v>5.791053540444163</v>
       </c>
       <c r="AS3">
-        <v>0.28932729527106471</v>
+        <v>0.36391662711483563</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
@@ -1534,24 +1656,20 @@
         <f t="shared" si="4"/>
         <v>-0.21425382697944587</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f t="shared" si="5"/>
-        <v>0.61199931326572643</v>
-      </c>
-      <c r="AA4">
+        <v>0.59202451094683506</v>
+      </c>
+      <c r="AB4">
         <f t="shared" si="6"/>
-        <v>0.59202451094683506</v>
-      </c>
-      <c r="AB4">
+        <v>-0.45559211223734131</v>
+      </c>
+      <c r="AC4">
         <f t="shared" si="7"/>
-        <v>-0.45559211223734131</v>
-      </c>
-      <c r="AC4">
+        <v>0.40666597997089177</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="8"/>
-        <v>0.40666597997089177</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="9"/>
         <v>1.3044646983472388</v>
       </c>
       <c r="AF4">
@@ -1567,7 +1685,7 @@
         <v>2.9339133027328641</v>
       </c>
       <c r="AJ4">
-        <v>4.9777452037177161</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0.76619476176076218</v>
@@ -1582,11 +1700,11 @@
         <v>5.3983757089393869</v>
       </c>
       <c r="AP4">
-        <f t="shared" si="10"/>
-        <v>5.7603086564190917</v>
+        <f t="shared" si="9"/>
+        <v>5.3106883370707232</v>
       </c>
       <c r="AS4">
-        <v>0.37950366637717337</v>
+        <v>0.41667944766976528</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
@@ -1663,24 +1781,20 @@
         <f t="shared" si="4"/>
         <v>-0.21425382697944587</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <f t="shared" si="5"/>
-        <v>0.89604962743969208</v>
-      </c>
-      <c r="AA5">
+        <v>-1.1586265242520846</v>
+      </c>
+      <c r="AB5">
         <f t="shared" si="6"/>
-        <v>-1.1586265242520846</v>
-      </c>
-      <c r="AB5">
+        <v>-0.45559211223734131</v>
+      </c>
+      <c r="AC5">
         <f t="shared" si="7"/>
-        <v>-0.45559211223734131</v>
-      </c>
-      <c r="AC5">
+        <v>0.84170400505603182</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="8"/>
-        <v>0.84170400505603182</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="9"/>
         <v>-0.16031300164873477</v>
       </c>
       <c r="AF5">
@@ -1696,7 +1810,7 @@
         <v>2.9339133027328641</v>
       </c>
       <c r="AJ5">
-        <v>3.7909483670867381</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>6.895752855846859</v>
@@ -1711,11 +1825,11 @@
         <v>14.350597052355416</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="10"/>
-        <v>6.8427991027071409</v>
+        <f t="shared" si="9"/>
+        <v>6.5599505480546814</v>
       </c>
       <c r="AS5">
-        <v>0.26289856877446538</v>
+        <v>0.27946176953382684</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
@@ -1792,24 +1906,20 @@
         <f t="shared" si="4"/>
         <v>-0.21425382697944587</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f t="shared" si="5"/>
-        <v>0.14718970825378264</v>
-      </c>
-      <c r="AA6">
+        <v>6.6829200387159143E-2</v>
+      </c>
+      <c r="AB6">
         <f t="shared" si="6"/>
-        <v>6.6829200387159143E-2</v>
-      </c>
-      <c r="AB6">
+        <v>-1.1442198393868823</v>
+      </c>
+      <c r="AC6">
         <f t="shared" si="7"/>
-        <v>-1.1442198393868823</v>
-      </c>
-      <c r="AC6">
+        <v>0.62418499251346182</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="8"/>
-        <v>0.62418499251346182</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="9"/>
         <v>-0.16031300164873477</v>
       </c>
       <c r="AF6">
@@ -1825,7 +1935,7 @@
         <v>2.9339133027328641</v>
       </c>
       <c r="AJ6">
-        <v>7.2678536741781246</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>1.9614585901075514</v>
@@ -1840,11 +1950,11 @@
         <v>14.350597052355416</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="10"/>
-        <v>7.6861169733518029</v>
+        <f t="shared" si="9"/>
+        <v>7.1978149777462708</v>
       </c>
       <c r="AS6">
-        <v>0.17205697016837307</v>
+        <v>0.20939939572773381</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
@@ -1921,24 +2031,20 @@
         <f t="shared" si="4"/>
         <v>0.64217966470757126</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <f t="shared" si="5"/>
-        <v>-0.52420194343013615</v>
-      </c>
-      <c r="AA7">
+        <v>0.59465048749963345</v>
+      </c>
+      <c r="AB7">
         <f t="shared" si="6"/>
-        <v>0.59465048749963345</v>
-      </c>
-      <c r="AB7">
+        <v>0.23303561491219968</v>
+      </c>
+      <c r="AC7">
         <f t="shared" si="7"/>
-        <v>0.23303561491219968</v>
-      </c>
-      <c r="AC7">
+        <v>-2.8372045114248297E-2</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="8"/>
-        <v>-2.8372045114248297E-2</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="9"/>
         <v>-0.16031300164873477</v>
       </c>
       <c r="AF7">
@@ -1954,7 +2060,7 @@
         <v>0.73347832568321603</v>
       </c>
       <c r="AJ7">
-        <v>11.338624169888202</v>
+        <v>0</v>
       </c>
       <c r="AK7">
         <v>0.76160448894305344</v>
@@ -1969,11 +2075,11 @@
         <v>14.350597052355416</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="10"/>
-        <v>6.5419901730383563</v>
+        <f t="shared" si="9"/>
+        <v>5.6088333238064951</v>
       </c>
       <c r="AS7">
-        <v>0.29530149179708676</v>
+        <v>0.38393150855173963</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
@@ -2050,24 +2156,20 @@
         <f t="shared" si="4"/>
         <v>0.64217966470757126</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f t="shared" si="5"/>
-        <v>-0.39508816426015181</v>
-      </c>
-      <c r="AA8">
+        <v>0.24189430390705111</v>
+      </c>
+      <c r="AB8">
         <f t="shared" si="6"/>
-        <v>0.24189430390705111</v>
-      </c>
-      <c r="AB8">
+        <v>-0.22604953652082765</v>
+      </c>
+      <c r="AC8">
         <f t="shared" si="7"/>
-        <v>-0.22604953652082765</v>
-      </c>
-      <c r="AC8">
+        <v>0.62418499251346182</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="8"/>
-        <v>0.62418499251346182</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="9"/>
         <v>1.3044646983472388</v>
       </c>
       <c r="AF8">
@@ -2083,7 +2185,7 @@
         <v>0.73347832568321603</v>
       </c>
       <c r="AJ8">
-        <v>10.485768144463426</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>1.5017417330510938</v>
@@ -2098,11 +2200,11 @@
         <v>5.3983757089393869</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="10"/>
-        <v>5.584665781282018</v>
+        <f t="shared" si="9"/>
+        <v>4.5500245872037732</v>
       </c>
       <c r="AS8">
-        <v>0.39842379141736128</v>
+        <v>0.50022997267660829</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
@@ -2179,24 +2281,20 @@
         <f t="shared" si="4"/>
         <v>-0.21425382697944587</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <f t="shared" si="5"/>
-        <v>-0.40799954217715023</v>
-      </c>
-      <c r="AA9">
+        <v>0.17186826249909432</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="6"/>
-        <v>0.17186826249909432</v>
-      </c>
-      <c r="AB9">
+        <v>-0.45559211223734131</v>
+      </c>
+      <c r="AC9">
         <f t="shared" si="7"/>
-        <v>-0.45559211223734131</v>
-      </c>
-      <c r="AC9">
+        <v>0.18914696742832174</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="8"/>
-        <v>0.18914696742832174</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="9"/>
         <v>0.19325402938477607</v>
       </c>
       <c r="AF9">
@@ -2212,7 +2310,7 @@
         <v>2.9339133027328641</v>
       </c>
       <c r="AJ9">
-        <v>10.569553413888462</v>
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>1.6782730061607734</v>
@@ -2227,11 +2325,11 @@
         <v>11.79682858134959</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="10"/>
-        <v>7.1544426456947239</v>
+        <f t="shared" si="9"/>
+        <v>6.3731072607203831</v>
       </c>
       <c r="AS9">
-        <v>0.22932854894479282</v>
+        <v>0.299984444307688</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
@@ -2308,24 +2406,20 @@
         <f t="shared" si="4"/>
         <v>-1.0706873186664629</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <f t="shared" si="5"/>
-        <v>0.74111309243571089</v>
-      </c>
-      <c r="AA10">
+        <v>-1.1586265242520846</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="6"/>
-        <v>-1.1586265242520846</v>
-      </c>
-      <c r="AB10">
+        <v>-0.45559211223734131</v>
+      </c>
+      <c r="AC10">
         <f t="shared" si="7"/>
-        <v>-0.45559211223734131</v>
-      </c>
-      <c r="AC10">
+        <v>-2.4210811830825185</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="8"/>
-        <v>-2.4210811830825185</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="9"/>
         <v>-1.119994943025407</v>
       </c>
       <c r="AF10">
@@ -2341,7 +2435,7 @@
         <v>6.6013049311489427</v>
       </c>
       <c r="AJ10">
-        <v>4.418287654592314</v>
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>6.895752855846859</v>
@@ -2356,11 +2450,11 @@
         <v>22.542555654153325</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="10"/>
-        <v>8.3031628182735062</v>
+        <f t="shared" si="9"/>
+        <v>8.0326972513700099</v>
       </c>
       <c r="AS10">
-        <v>0.10558923253690888</v>
+        <v>0.11769678430136943</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
@@ -2437,24 +2531,20 @@
         <f t="shared" si="4"/>
         <v>1.4986131563945884</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <f t="shared" si="5"/>
-        <v>6.9721440751792013E-2</v>
-      </c>
-      <c r="AA11">
+        <v>0.67955706270678107</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="6"/>
-        <v>0.67955706270678107</v>
-      </c>
-      <c r="AB11">
+        <v>0.23303561491219968</v>
+      </c>
+      <c r="AC11">
         <f t="shared" si="7"/>
-        <v>0.23303561491219968</v>
-      </c>
-      <c r="AC11">
+        <v>0.73294449878474688</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="8"/>
-        <v>0.73294449878474688</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="9"/>
         <v>3.6279051879960242</v>
       </c>
       <c r="AF11">
@@ -2470,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>7.6915477465431801</v>
+        <v>0</v>
       </c>
       <c r="AK11">
         <v>0.62061775702621724</v>
@@ -2485,11 +2575,11 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="10"/>
-        <v>4.3989569671970532</v>
+        <f t="shared" si="9"/>
+        <v>3.4145680038195634</v>
       </c>
       <c r="AS11">
-        <v>0.52614749786564685</v>
+        <v>0.62494735756687092</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
@@ -2566,24 +2656,20 @@
         <f t="shared" si="4"/>
         <v>-0.21425382697944587</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <f t="shared" si="5"/>
-        <v>0.58617655743172958</v>
-      </c>
-      <c r="AA12">
+        <v>-0.37083355841257076</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="6"/>
-        <v>-0.37083355841257076</v>
-      </c>
-      <c r="AB12">
+        <v>0.87575482691843798</v>
+      </c>
+      <c r="AC12">
         <f t="shared" si="7"/>
-        <v>0.87575482691843798</v>
-      </c>
-      <c r="AC12">
+        <v>0.51542548624217677</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="8"/>
-        <v>0.51542548624217677</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="9"/>
         <v>-0.16031300164873477</v>
       </c>
       <c r="AF12">
@@ -2599,7 +2685,7 @@
         <v>2.9339133027328641</v>
       </c>
       <c r="AJ12">
-        <v>5.0936376018559706</v>
+        <v>0</v>
       </c>
       <c r="AK12">
         <v>3.3789188993649617</v>
@@ -2614,11 +2700,11 @@
         <v>14.350597052355416</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="10"/>
-        <v>6.1912742455734655</v>
+        <f t="shared" si="9"/>
+        <v>5.7652614148922439</v>
       </c>
       <c r="AS12">
-        <v>0.33308036097149951</v>
+        <v>0.36674960769433895</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
@@ -2695,24 +2781,20 @@
         <f t="shared" si="4"/>
         <v>1.4986131563945884</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <f t="shared" si="5"/>
-        <v>-1.4538211534540237</v>
-      </c>
-      <c r="AA13">
+        <v>0.59202451094683506</v>
+      </c>
+      <c r="AB13">
         <f t="shared" si="6"/>
-        <v>0.59202451094683506</v>
-      </c>
-      <c r="AB13">
+        <v>2.6447296767337376E-2</v>
+      </c>
+      <c r="AC13">
         <f t="shared" si="7"/>
-        <v>2.6447296767337376E-2</v>
-      </c>
-      <c r="AC13">
+        <v>0.73294449878474688</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="8"/>
-        <v>0.73294449878474688</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="9"/>
         <v>-0.21082257751066488</v>
       </c>
       <c r="AF13">
@@ -2728,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>18.463406077987251</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <v>0.76619476176076218</v>
@@ -2743,11 +2825,11 @@
         <v>14.735830857671978</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="10"/>
-        <v>7.4965277732741571</v>
+        <f t="shared" si="9"/>
+        <v>6.1428431998125701</v>
       </c>
       <c r="AS13">
-        <v>0.19247938336867443</v>
+        <v>0.32527641225334136</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
@@ -2824,24 +2906,20 @@
         <f t="shared" si="4"/>
         <v>-0.21425382697944587</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <f t="shared" si="5"/>
-        <v>-0.80825225760410191</v>
-      </c>
-      <c r="AA14">
+        <v>8.6086361774347253E-2</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="6"/>
-        <v>8.6086361774347253E-2</v>
-      </c>
-      <c r="AB14">
+        <v>1.346317107137291</v>
+      </c>
+      <c r="AC14">
         <f t="shared" si="7"/>
-        <v>1.346317107137291</v>
-      </c>
-      <c r="AC14">
+        <v>0.73294449878474688</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="8"/>
-        <v>0.73294449878474688</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="9"/>
         <v>-0.21082257751066488</v>
       </c>
       <c r="AF14">
@@ -2857,7 +2935,7 @@
         <v>2.9339133027328641</v>
       </c>
       <c r="AJ14">
-        <v>13.33226681634247</v>
+        <v>0</v>
       </c>
       <c r="AK14">
         <v>1.9078893171442859</v>
@@ -2872,11 +2950,11 @@
         <v>14.735830857671978</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="10"/>
-        <v>6.687772612465019</v>
+        <f t="shared" si="9"/>
+        <v>5.6030380776588258</v>
       </c>
       <c r="AS14">
-        <v>0.2795979115609768</v>
+        <v>0.38456805243629621</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
@@ -2953,24 +3031,20 @@
         <f t="shared" si="4"/>
         <v>-1.0706873186664629</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <f t="shared" si="5"/>
-        <v>0.40541726659375144</v>
-      </c>
-      <c r="AA15">
+        <v>-0.20889833765667071</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="6"/>
-        <v>-0.20889833765667071</v>
-      </c>
-      <c r="AB15">
+        <v>0.71507502391687838</v>
+      </c>
+      <c r="AC15">
         <f t="shared" si="7"/>
-        <v>0.71507502391687838</v>
-      </c>
-      <c r="AC15">
+        <v>-0.13713155138553332</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="8"/>
-        <v>-0.13713155138553332</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="9"/>
         <v>-1.119994943025407</v>
       </c>
       <c r="AF15">
@@ -2986,7 +3060,7 @@
         <v>6.6013049311489427</v>
       </c>
       <c r="AJ15">
-        <v>5.942226013080032</v>
+        <v>0</v>
       </c>
       <c r="AK15">
         <v>2.8098085851981112</v>
@@ -3001,11 +3075,11 @@
         <v>22.542555654153325</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="10"/>
-        <v>7.8363030781190011</v>
+        <f t="shared" si="9"/>
+        <v>7.4475109881796957</v>
       </c>
       <c r="AS15">
-        <v>0.15587903024751615</v>
+        <v>0.18197304240476309</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
@@ -3082,24 +3156,20 @@
         <f t="shared" si="4"/>
         <v>1.4986131563945884</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <f t="shared" si="5"/>
-        <v>-1.4538211534540237</v>
-      </c>
-      <c r="AA16">
+        <v>1.4673500285462948</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="6"/>
-        <v>1.4673500285462948</v>
-      </c>
-      <c r="AB16">
+        <v>1.8398336449277952</v>
+      </c>
+      <c r="AC16">
         <f t="shared" si="7"/>
-        <v>1.8398336449277952</v>
-      </c>
-      <c r="AC16">
+        <v>0.62418499251346182</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="8"/>
-        <v>0.62418499251346182</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="9"/>
         <v>-0.16031300164873477</v>
       </c>
       <c r="AF16">
@@ -3115,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>18.463406077987251</v>
+        <v>0</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -3130,11 +3200,11 @@
         <v>14.350597052355416</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="10"/>
-        <v>6.6929795288399188</v>
+        <f t="shared" si="9"/>
+        <v>5.1315269555448078</v>
       </c>
       <c r="AS16">
-        <v>0.27903702624860627</v>
+        <v>0.43635834979972721</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.3">
@@ -3211,24 +3281,20 @@
         <f t="shared" si="4"/>
         <v>1.4986131563945884</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <f t="shared" si="5"/>
-        <v>-1.2730618626160457</v>
-      </c>
-      <c r="AA17">
+        <v>1.4673500285462948</v>
+      </c>
+      <c r="AB17">
         <f t="shared" si="6"/>
-        <v>1.4673500285462948</v>
-      </c>
-      <c r="AB17">
+        <v>0.69212076634522701</v>
+      </c>
+      <c r="AC17">
         <f t="shared" si="7"/>
-        <v>0.69212076634522701</v>
-      </c>
-      <c r="AC17">
+        <v>0.62418499251346182</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="8"/>
-        <v>0.62418499251346182</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="9"/>
         <v>-0.16031300164873477</v>
       </c>
       <c r="AF17">
@@ -3244,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>16.942668430150075</v>
+        <v>0</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -3259,11 +3325,11 @@
         <v>14.350597052355416</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="10"/>
-        <v>6.164805813458333</v>
+        <f t="shared" si="9"/>
+        <v>4.5893531447797287</v>
       </c>
       <c r="AS17">
-        <v>0.3359315215713542</v>
+        <v>0.49591016430686852</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.3">
@@ -3340,24 +3406,20 @@
         <f t="shared" si="4"/>
         <v>-0.6424705728229545</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <f t="shared" si="5"/>
-        <v>-0.16268336175417988</v>
-      </c>
-      <c r="AA18">
+        <v>0.17186826249909432</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="6"/>
-        <v>0.17186826249909432</v>
-      </c>
-      <c r="AB18">
+        <v>0.69212076634522701</v>
+      </c>
+      <c r="AC18">
         <f t="shared" si="7"/>
-        <v>0.69212076634522701</v>
-      </c>
-      <c r="AC18">
+        <v>-0.35465056392810335</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="8"/>
-        <v>-0.35465056392810335</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="9"/>
         <v>-0.21082257751066488</v>
       </c>
       <c r="AF18">
@@ -3373,7 +3435,7 @@
         <v>4.5842395355201004</v>
       </c>
       <c r="AJ18">
-        <v>9.0346459532754615</v>
+        <v>0</v>
       </c>
       <c r="AK18">
         <v>1.6782730061607734</v>
@@ -3388,11 +3450,11 @@
         <v>14.735830857671978</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="10"/>
-        <v>6.6933973183502262</v>
+        <f t="shared" si="9"/>
+        <v>5.9805452684535823</v>
       </c>
       <c r="AS18">
-        <v>0.27899202226100173</v>
+        <v>0.34310305033743549</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.3">
@@ -3469,24 +3531,20 @@
         <f t="shared" si="4"/>
         <v>-0.21425382697944587</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <f t="shared" si="5"/>
-        <v>0.45706277826174518</v>
-      </c>
-      <c r="AA19">
+        <v>-0.26141786871263828</v>
+      </c>
+      <c r="AB19">
         <f t="shared" si="6"/>
-        <v>-0.26141786871263828</v>
-      </c>
-      <c r="AB19">
+        <v>-0.57036340009559816</v>
+      </c>
+      <c r="AC19">
         <f t="shared" si="7"/>
-        <v>-0.57036340009559816</v>
-      </c>
-      <c r="AC19">
+        <v>-0.4634100701993884</v>
+      </c>
+      <c r="AD19">
         <f t="shared" si="8"/>
-        <v>-0.4634100701993884</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="9"/>
         <v>-0.21082257751066488</v>
       </c>
       <c r="AF19">
@@ -3502,7 +3560,7 @@
         <v>2.9339133027328641</v>
       </c>
       <c r="AJ19">
-        <v>5.6931040341131061</v>
+        <v>0</v>
       </c>
       <c r="AK19">
         <v>2.9886384425930732</v>
@@ -3517,11 +3575,11 @@
         <v>14.735830857671978</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="10"/>
-        <v>6.802648985423656</v>
+        <f t="shared" si="9"/>
+        <v>6.3704732308339853</v>
       </c>
       <c r="AS19">
-        <v>0.26722351072721406</v>
+        <v>0.30027376344499501</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.3">
@@ -3598,24 +3656,20 @@
         <f t="shared" si="4"/>
         <v>0.64217966470757126</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <f t="shared" si="5"/>
-        <v>-0.36926540842615491</v>
-      </c>
-      <c r="AA20">
+        <v>0.73207659376274858</v>
+      </c>
+      <c r="AB20">
         <f t="shared" si="6"/>
-        <v>0.73207659376274858</v>
-      </c>
-      <c r="AB20">
+        <v>0.69212076634522701</v>
+      </c>
+      <c r="AC20">
         <f t="shared" si="7"/>
-        <v>0.69212076634522701</v>
-      </c>
-      <c r="AC20">
+        <v>0.62418499251346182</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="8"/>
-        <v>0.62418499251346182</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="9"/>
         <v>0.19325402938477607</v>
       </c>
       <c r="AF20">
@@ -3631,7 +3685,7 @@
         <v>0.73347832568321603</v>
       </c>
       <c r="AJ20">
-        <v>10.319197827691644</v>
+        <v>0</v>
       </c>
       <c r="AK20">
         <v>0.54062702389839379</v>
@@ -3646,11 +3700,11 @@
         <v>11.79682858134959</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="10"/>
-        <v>5.7261569924488036</v>
+        <f t="shared" si="9"/>
+        <v>4.7402189901394509</v>
       </c>
       <c r="AS20">
-        <v>0.38318245922398864</v>
+        <v>0.47933921480702602</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.3">
@@ -3727,24 +3781,20 @@
         <f t="shared" si="4"/>
         <v>1.4986131563945884</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <f t="shared" si="5"/>
-        <v>-1.1697708392800581</v>
-      </c>
-      <c r="AA21">
+        <v>0.59202451094683506</v>
+      </c>
+      <c r="AB21">
         <f t="shared" si="6"/>
-        <v>0.59202451094683506</v>
-      </c>
-      <c r="AB21">
+        <v>0.46257819062871336</v>
+      </c>
+      <c r="AC21">
         <f t="shared" si="7"/>
-        <v>0.46257819062871336</v>
-      </c>
-      <c r="AC21">
+        <v>8.0387461157036724E-2</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="8"/>
-        <v>8.0387461157036724E-2</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="9"/>
         <v>0.19325402938477607</v>
       </c>
       <c r="AF21">
@@ -3760,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>16.103015336158766</v>
+        <v>0</v>
       </c>
       <c r="AK21">
         <v>0.76619476176076218</v>
@@ -3775,11 +3825,11 @@
         <v>11.79682858134959</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="10"/>
-        <v>6.631587847784794</v>
+        <f t="shared" si="9"/>
+        <v>5.2796725321489584</v>
       </c>
       <c r="AS21">
-        <v>0.28565009427703514</v>
+        <v>0.42008619182600593</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.3">
@@ -3856,24 +3906,20 @@
         <f t="shared" si="4"/>
         <v>-1.9237753670265778</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <f t="shared" si="5"/>
-        <v>2.8430854173230569</v>
-      </c>
-      <c r="AA22">
+        <v>-2.7342124559311123</v>
+      </c>
+      <c r="AB22">
         <f t="shared" si="6"/>
-        <v>-2.7342124559311123</v>
-      </c>
-      <c r="AB22">
+        <v>-2.9805604451189915</v>
+      </c>
+      <c r="AC22">
         <f t="shared" si="7"/>
-        <v>-2.9805604451189915</v>
-      </c>
-      <c r="AC22">
+        <v>-1.9860431579973785</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="8"/>
-        <v>-1.9860431579973785</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="9"/>
         <v>-1.3725428223350575</v>
       </c>
       <c r="AF22">
@@ -3904,11 +3950,11 @@
         <v>25.004480304024078</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10.272872219220055</v>
       </c>
       <c r="AS22">
-        <v>-0.10658645708135017</v>
+        <v>-0.12836173328119838</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.3">
@@ -3985,24 +4031,20 @@
         <f t="shared" si="4"/>
         <v>-0.6424705728229545</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <f t="shared" si="5"/>
-        <v>-0.65331572260012061</v>
-      </c>
-      <c r="AA23">
+        <v>0.73207659376274858</v>
+      </c>
+      <c r="AB23">
         <f t="shared" si="6"/>
-        <v>0.73207659376274858</v>
-      </c>
-      <c r="AB23">
+        <v>-0.34082082437908451</v>
+      </c>
+      <c r="AC23">
         <f t="shared" si="7"/>
-        <v>-0.34082082437908451</v>
-      </c>
-      <c r="AC23">
+        <v>-0.57216957647067335</v>
+      </c>
+      <c r="AD23">
         <f t="shared" si="8"/>
-        <v>-0.57216957647067335</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="9"/>
         <v>0.19325402938477607</v>
       </c>
       <c r="AF23">
@@ -4018,7 +4060,7 @@
         <v>4.5842395355201004</v>
       </c>
       <c r="AJ23">
-        <v>12.224820931256096</v>
+        <v>0</v>
       </c>
       <c r="AK23">
         <v>0.54062702389839379</v>
@@ -4033,11 +4075,11 @@
         <v>11.79682858134959</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="10"/>
-        <v>6.9597823617693875</v>
+        <f t="shared" si="9"/>
+        <v>6.0177861038707743</v>
       </c>
       <c r="AS23">
-        <v>0.25029721567466501</v>
+        <v>0.3390125552253126</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.3">
@@ -4114,24 +4156,20 @@
         <f t="shared" si="4"/>
         <v>-1.7130124374317259</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <f t="shared" si="5"/>
-        <v>1.748200569961589</v>
-      </c>
-      <c r="AA24">
+        <v>-2.0339520418515447</v>
+      </c>
+      <c r="AB24">
         <f t="shared" si="6"/>
-        <v>-2.0339520418515447</v>
-      </c>
-      <c r="AB24">
+        <v>-1.4885337029616528</v>
+      </c>
+      <c r="AC24">
         <f t="shared" si="7"/>
-        <v>-1.4885337029616528</v>
-      </c>
-      <c r="AC24">
+        <v>-2.6386001956250889</v>
+      </c>
+      <c r="AD24">
         <f t="shared" si="8"/>
-        <v>-2.6386001956250889</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="9"/>
         <v>-1.2210140947492674</v>
       </c>
       <c r="AF24">
@@ -4147,7 +4185,7 @@
         <v>10.314538954920225</v>
       </c>
       <c r="AJ24">
-        <v>1.1987728289817448</v>
+        <v>0</v>
       </c>
       <c r="AK24">
         <v>12.259116188172197</v>
@@ -4162,11 +4200,11 @@
         <v>23.512018210579114</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="10"/>
-        <v>9.13550519163182</v>
+        <f t="shared" si="9"/>
+        <v>9.0696572304222283</v>
       </c>
       <c r="AS24">
-        <v>1.5929906658212367E-2</v>
+        <v>3.7981652649661246E-3</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.3">
@@ -4178,35 +4216,35 @@
         <v>7.1965217391304348</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26:T26" si="11">AVERAGE(M2:M24)</f>
+        <f t="shared" ref="M26:T26" si="10">AVERAGE(M2:M24)</f>
         <v>-2884.5956521739131</v>
       </c>
       <c r="N26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>272.69633152173913</v>
       </c>
       <c r="O26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9.0006793478260878</v>
       </c>
       <c r="P26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-189.70000000000002</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4323.652173913043</v>
       </c>
       <c r="R26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2596.9565217391305</v>
       </c>
       <c r="S26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-7.7391304347826084</v>
       </c>
       <c r="T26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>56.347826086956523</v>
       </c>
       <c r="U26" t="s">
@@ -4217,67 +4255,64 @@
         <v>1.5498981687252191</v>
       </c>
       <c r="W26">
-        <f t="shared" ref="W26:AD26" si="12">MAX(W2:W24)</f>
+        <f t="shared" ref="W26:AD26" si="11">MAX(W2:W24)</f>
         <v>0.95473274631788052</v>
       </c>
       <c r="X26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.6624349290127509</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.4986131563945884</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="12"/>
-        <v>2.8430854173230569</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.4673500285462948</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.8398336449277952</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.84170400505603182</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.6279051879960242</v>
       </c>
       <c r="AE26" t="s">
         <v>38</v>
       </c>
       <c r="AF26">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="AG26">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH26">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI26">
-        <v>0.1</v>
-      </c>
-      <c r="AJ26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK26">
+        <v>0.2</v>
+      </c>
+      <c r="AL26">
         <v>0.05</v>
       </c>
-      <c r="AK26">
-        <v>0.08</v>
-      </c>
-      <c r="AL26">
-        <v>6.5000000000000002E-2</v>
-      </c>
       <c r="AM26">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN26">
         <f>1-SUM(AF26:AM26)</f>
-        <v>0.13000000000000012</v>
+        <v>9.9999999999999867E-2</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.3">
@@ -4289,35 +4324,35 @@
         <v>1.0410221093406677</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27:T27" si="13">_xlfn.STDEV.P(M2:M24)</f>
+        <f t="shared" ref="M27:T27" si="12">_xlfn.STDEV.P(M2:M24)</f>
         <v>2760.5585566627096</v>
       </c>
       <c r="N27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>273.17237336123367</v>
       </c>
       <c r="O27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.6705319663769016</v>
       </c>
       <c r="P27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>38.725533650573915</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1142.4321351243755</v>
       </c>
       <c r="R27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>871.29805603907266</v>
       </c>
       <c r="S27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>9.1945985623145727</v>
       </c>
       <c r="T27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>39.596452076079146</v>
       </c>
       <c r="AE27" t="s">
@@ -4363,43 +4398,43 @@
       </c>
       <c r="AF28" cm="1">
         <f t="array" ref="AF28:AN50">AF$26:AN$26*AF2:AN24</f>
-        <v>0.36720778221764033</v>
+        <v>0.64801373332524759</v>
       </c>
       <c r="AG28">
-        <v>0.42842906030960715</v>
+        <v>0.28561937353973815</v>
       </c>
       <c r="AH28">
-        <v>1.1208618902830247</v>
+        <v>0.71327574836192487</v>
       </c>
       <c r="AI28">
-        <v>0.45842395355201004</v>
+        <v>0.32089676748640705</v>
       </c>
       <c r="AJ28">
-        <v>0.27852717443931158</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>0.43077314503176384</v>
+        <v>1.0769328625794097</v>
       </c>
       <c r="AL28">
-        <v>4.688601325013856E-2</v>
+        <v>3.6066164038568126E-2</v>
       </c>
       <c r="AM28">
-        <v>1.005433567371762E-3</v>
+        <v>8.280041143061569E-4</v>
       </c>
       <c r="AN28">
-        <v>1.9156580114973589</v>
+        <v>1.4735830857671959</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="10"/>
-        <v>2.246724830536269</v>
+        <f t="shared" si="9"/>
+        <v>2.1342951387314728</v>
       </c>
       <c r="AQ28">
-        <f t="shared" ref="AQ28" si="14">AVERAGE(AP28:AP50)+2*_xlfn.STDEV.P(AP28:AP50)</f>
-        <v>3.0502340654965314</v>
+        <f t="shared" ref="AQ28" si="13">AVERAGE(AP28:AP50)+2*_xlfn.STDEV.P(AP28:AP50)</f>
+        <v>3.0507924816331529</v>
       </c>
       <c r="AS28" cm="1">
         <f t="array" ref="AS28:AS50">1-(AP28:AP50/$AQ$28)</f>
-        <v>0.26342543480493963</v>
+        <v>0.30041287580827525</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.3">
@@ -4407,38 +4442,38 @@
         <v>11</v>
       </c>
       <c r="AF29">
-        <v>0.11601814504172195</v>
+        <v>0.20473790301480341</v>
       </c>
       <c r="AG29">
-        <v>5.0221872848004126E-2</v>
+        <v>3.3481248565336089E-2</v>
       </c>
       <c r="AH29">
-        <v>1.1208618902830247</v>
+        <v>0.71327574836192487</v>
       </c>
       <c r="AI29">
-        <v>0.2933913302732864</v>
+        <v>0.20537393119130051</v>
       </c>
       <c r="AJ29">
-        <v>0.49950290412306259</v>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <v>6.1295580940860975E-2</v>
+        <v>0.15323895235215246</v>
       </c>
       <c r="AL29">
-        <v>0.27741176576049842</v>
+        <v>0.21339366596961418</v>
       </c>
       <c r="AM29">
-        <v>9.0489021063458689E-3</v>
+        <v>7.4520370287554224E-3</v>
       </c>
       <c r="AN29">
-        <v>1.8655776168062057</v>
+        <v>1.4350597052355398</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="10"/>
-        <v>2.0720352333353338</v>
+        <f t="shared" si="9"/>
+        <v>1.7222117151266352</v>
       </c>
       <c r="AS29">
-        <v>0.32069631744866167</v>
+        <v>0.43548709868174995</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.3">
@@ -4446,38 +4481,38 @@
         <v>12</v>
       </c>
       <c r="AF30">
-        <v>0.57827107880178985</v>
+        <v>1.0204783743560997</v>
       </c>
       <c r="AG30">
-        <v>1.1642656394118923E-2</v>
+        <v>7.7617709294126166E-3</v>
       </c>
       <c r="AH30">
-        <v>1.1208618902830247</v>
+        <v>0.71327574836192487</v>
       </c>
       <c r="AI30">
-        <v>0.2933913302732864</v>
+        <v>0.20537393119130051</v>
       </c>
       <c r="AJ30">
-        <v>0.24888726018588581</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>6.1295580940860975E-2</v>
+        <v>0.15323895235215246</v>
       </c>
       <c r="AL30">
-        <v>0.34248366143271414</v>
+        <v>0.26344897033285702</v>
       </c>
       <c r="AM30">
-        <v>1.6086937077948213E-2</v>
+        <v>1.3248065828898528E-2</v>
       </c>
       <c r="AN30">
-        <v>0.7017888421621209</v>
+        <v>0.53983757089393802</v>
       </c>
       <c r="AP30">
-        <f t="shared" si="10"/>
-        <v>1.8370381698679399</v>
+        <f t="shared" si="9"/>
+        <v>1.7078241666654632</v>
       </c>
       <c r="AS30">
-        <v>0.39773862253784176</v>
+        <v>0.44020310232598014</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.3">
@@ -4485,38 +4520,38 @@
         <v>13</v>
       </c>
       <c r="AF31">
-        <v>1.0280374734254036</v>
+        <v>1.8141837766330651</v>
       </c>
       <c r="AG31">
-        <v>2.4922201385793021E-2</v>
+        <v>1.6614800923862017E-2</v>
       </c>
       <c r="AH31">
-        <v>0.81595273874740193</v>
+        <v>0.51924265193016494</v>
       </c>
       <c r="AI31">
-        <v>0.2933913302732864</v>
+        <v>0.20537393119130051</v>
       </c>
       <c r="AJ31">
-        <v>0.18954741835433692</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>0.55166022846774876</v>
+        <v>1.3791505711693719</v>
       </c>
       <c r="AL31">
-        <v>0.34248366143271414</v>
+        <v>0.26344897033285702</v>
       </c>
       <c r="AM31">
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>1.8655776168062057</v>
+        <v>1.4350597052355398</v>
       </c>
       <c r="AP31">
-        <f t="shared" si="10"/>
-        <v>2.2608787382106299</v>
+        <f t="shared" si="9"/>
+        <v>2.3734098692421757</v>
       </c>
       <c r="AS31">
-        <v>0.2587851654451333</v>
+        <v>0.2220349684447761</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.3">
@@ -4554,38 +4589,38 @@
         <v>14</v>
       </c>
       <c r="AF32">
-        <v>2.2770835522446444</v>
+        <v>4.0183827392552542</v>
       </c>
       <c r="AG32">
-        <v>5.5480134625260887E-3</v>
+        <v>3.6986756416840594E-3</v>
       </c>
       <c r="AH32">
-        <v>1.1208618902830247</v>
+        <v>0.71327574836192487</v>
       </c>
       <c r="AI32">
-        <v>0.2933913302732864</v>
+        <v>0.20537393119130051</v>
       </c>
       <c r="AJ32">
-        <v>0.36339268370890626</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>0.15691668720860411</v>
+        <v>0.39229171802151031</v>
       </c>
       <c r="AL32">
-        <v>0.57879738782128687</v>
+        <v>0.44522875986252841</v>
       </c>
       <c r="AM32">
-        <v>4.0217342694870515E-3</v>
+        <v>3.3120164572246311E-3</v>
       </c>
       <c r="AN32">
-        <v>1.8655776168062057</v>
+        <v>1.4350597052355398</v>
       </c>
       <c r="AP32">
-        <f t="shared" si="10"/>
-        <v>2.5817805669882117</v>
+        <f t="shared" si="9"/>
+        <v>2.6863773551061225</v>
       </c>
       <c r="AS32">
-        <v>0.15357952486576232</v>
+        <v>0.11944933282776127</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.3">
@@ -4623,38 +4658,38 @@
         <v>15</v>
       </c>
       <c r="AF33">
-        <v>0.26510365754530846</v>
+        <v>0.4678299839034854</v>
       </c>
       <c r="AG33">
-        <v>0.11033658661469485</v>
+        <v>7.3557724409796577E-2</v>
       </c>
       <c r="AH33">
-        <v>1.1208618902830247</v>
+        <v>0.71327574836192487</v>
       </c>
       <c r="AI33">
-        <v>7.33478325683216E-2</v>
+        <v>5.1343482797825128E-2</v>
       </c>
       <c r="AJ33">
-        <v>0.56693120849441014</v>
+        <v>0</v>
       </c>
       <c r="AK33">
-        <v>6.0928359115444274E-2</v>
+        <v>0.15232089778861069</v>
       </c>
       <c r="AL33">
-        <v>0.16781699410202994</v>
+        <v>0.12908999546309993</v>
       </c>
       <c r="AM33">
-        <v>6.4347748311792852E-2</v>
+        <v>5.2992263315594111E-2</v>
       </c>
       <c r="AN33">
-        <v>1.8655776168062057</v>
+        <v>1.4350597052355398</v>
       </c>
       <c r="AP33">
-        <f t="shared" si="10"/>
-        <v>2.0724989490567256</v>
+        <f t="shared" si="9"/>
+        <v>1.7537017423940358</v>
       </c>
       <c r="AS33">
-        <v>0.32054429117414163</v>
+        <v>0.42516518152187044</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.3">
@@ -4692,38 +4727,38 @@
         <v>16</v>
       </c>
       <c r="AF34">
-        <v>0.16641921318924119</v>
+        <v>0.29368096445160208</v>
       </c>
       <c r="AG34">
-        <v>7.502279771121606E-2</v>
+        <v>5.0015198474144047E-2</v>
       </c>
       <c r="AH34">
-        <v>0.81595273874740193</v>
+        <v>0.51924265193016494</v>
       </c>
       <c r="AI34">
-        <v>7.33478325683216E-2</v>
+        <v>5.1343482797825128E-2</v>
       </c>
       <c r="AJ34">
-        <v>0.52428840722317138</v>
+        <v>0</v>
       </c>
       <c r="AK34">
-        <v>0.1201393386440875</v>
+        <v>0.30034834661021881</v>
       </c>
       <c r="AL34">
-        <v>0.27741176576049842</v>
+        <v>0.21339366596961418</v>
       </c>
       <c r="AM34">
-        <v>4.0217342694870515E-3</v>
+        <v>3.3120164572246311E-3</v>
       </c>
       <c r="AN34">
-        <v>0.7017888421621209</v>
+        <v>0.53983757089393802</v>
       </c>
       <c r="AP34">
-        <f t="shared" si="10"/>
-        <v>1.6608409527331467</v>
+        <f t="shared" si="9"/>
+        <v>1.4039850061823067</v>
       </c>
       <c r="AS34">
-        <v>0.45550376886805011</v>
+        <v>0.53979662181718624</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.3">
@@ -4761,38 +4796,38 @@
         <v>17</v>
       </c>
       <c r="AF35">
-        <v>1.4023983484146807</v>
+        <v>2.4748206148494361</v>
       </c>
       <c r="AG35">
-        <v>1.5459270721318608E-2</v>
+        <v>1.0306180480879074E-2</v>
       </c>
       <c r="AH35">
-        <v>1.1208618902830247</v>
+        <v>0.71327574836192487</v>
       </c>
       <c r="AI35">
-        <v>0.2933913302732864</v>
+        <v>0.20537393119130051</v>
       </c>
       <c r="AJ35">
-        <v>0.52847767069442309</v>
+        <v>0</v>
       </c>
       <c r="AK35">
-        <v>0.13426184049286188</v>
+        <v>0.33565460123215468</v>
       </c>
       <c r="AL35">
-        <v>0.34248366143271414</v>
+        <v>0.26344897033285702</v>
       </c>
       <c r="AM35">
-        <v>3.6195608425383476E-2</v>
+        <v>2.980814811502169E-2</v>
       </c>
       <c r="AN35">
-        <v>1.533587715575448</v>
+        <v>1.1796828581349574</v>
       </c>
       <c r="AP35">
-        <f t="shared" si="10"/>
-        <v>2.3253209103934753</v>
+        <f t="shared" si="9"/>
+        <v>2.283061771546826</v>
       </c>
       <c r="AS35">
-        <v>0.23765820574331931</v>
+        <v>0.25164960078679122</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.3">
@@ -4830,38 +4865,38 @@
         <v>18</v>
       </c>
       <c r="AF36">
-        <v>1.411794625981054E-4</v>
+        <v>2.4914022811430361E-4</v>
       </c>
       <c r="AG36">
-        <v>2.5802882227685701E-3</v>
+        <v>1.7201921485123803E-3</v>
       </c>
       <c r="AH36">
-        <v>1.3812422300844851</v>
+        <v>0.87897232823558158</v>
       </c>
       <c r="AI36">
-        <v>0.66013049311489436</v>
+        <v>0.46209134518042605</v>
       </c>
       <c r="AJ36">
-        <v>0.22091438272961572</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>0.55166022846774876</v>
+        <v>1.3791505711693719</v>
       </c>
       <c r="AL36">
-        <v>0.34248366143271414</v>
+        <v>0.26344897033285702</v>
       </c>
       <c r="AM36">
-        <v>0.90489021063458674</v>
+        <v>0.74520370287554205</v>
       </c>
       <c r="AN36">
-        <v>2.930532235039935</v>
+        <v>2.2542555654153293</v>
       </c>
       <c r="AP36">
-        <f t="shared" si="10"/>
-        <v>2.6447258665482414</v>
+        <f t="shared" si="9"/>
+        <v>2.4464447297222423</v>
       </c>
       <c r="AS36">
-        <v>0.13294330541229449</v>
+        <v>0.19809533278625058</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.3">
@@ -4899,38 +4934,38 @@
         <v>19</v>
       </c>
       <c r="AF37">
-        <v>0.62746427821374773</v>
+        <v>1.107289902730143</v>
       </c>
       <c r="AG37">
-        <v>0.32818239929651194</v>
+        <v>0.21878826619767466</v>
       </c>
       <c r="AH37">
-        <v>0.35104175521783815</v>
+        <v>0.22339020786589703</v>
       </c>
       <c r="AI37">
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>0.38457738732715901</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>4.9649420562097382E-2</v>
+        <v>0.12412355140524345</v>
       </c>
       <c r="AL37">
-        <v>0.16781699410202994</v>
+        <v>0.12908999546309993</v>
       </c>
       <c r="AM37">
-        <v>1.005433567371762E-3</v>
+        <v>8.280041143061569E-4</v>
       </c>
       <c r="AN37">
         <v>0</v>
       </c>
       <c r="AP37">
-        <f t="shared" si="10"/>
-        <v>1.3819325845665396</v>
+        <f t="shared" si="9"/>
+        <v>1.3429482222991191</v>
       </c>
       <c r="AS37">
-        <v>0.54694211824639694</v>
+        <v>0.55980348372295352</v>
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.3">
@@ -4968,38 +5003,38 @@
         <v>20</v>
       </c>
       <c r="AF38">
-        <v>5.4605078811551334E-2</v>
+        <v>9.6361903785090589E-2</v>
       </c>
       <c r="AG38">
-        <v>0.21588932283252477</v>
+        <v>0.1439262152216832</v>
       </c>
       <c r="AH38">
-        <v>1.1208618902830247</v>
+        <v>0.71327574836192487</v>
       </c>
       <c r="AI38">
-        <v>0.2933913302732864</v>
+        <v>0.20537393119130051</v>
       </c>
       <c r="AJ38">
-        <v>0.25468188009279852</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>0.27031351194919695</v>
+        <v>0.67578377987299243</v>
       </c>
       <c r="AL38">
-        <v>6.0414117876730761E-2</v>
+        <v>4.6472398366715968E-2</v>
       </c>
       <c r="AM38">
-        <v>9.0489021063458689E-3</v>
+        <v>7.4520370287554224E-3</v>
       </c>
       <c r="AN38">
-        <v>1.8655776168062057</v>
+        <v>1.4350597052355398</v>
       </c>
       <c r="AP38">
-        <f t="shared" si="10"/>
-        <v>2.0358741736737231</v>
+        <f t="shared" si="9"/>
+        <v>1.8231033210062457</v>
       </c>
       <c r="AS38">
-        <v>0.33255149278443519</v>
+        <v>0.40241647638049094</v>
       </c>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.3">
@@ -5037,10 +5072,10 @@
         <v>21</v>
       </c>
       <c r="AF39">
-        <v>0.64007631020584388</v>
+        <v>1.1295464297750184</v>
       </c>
       <c r="AG39">
-        <v>3.1851001379893442</v>
+        <v>2.1234000919928966</v>
       </c>
       <c r="AH39">
         <v>0</v>
@@ -5049,26 +5084,26 @@
         <v>0</v>
       </c>
       <c r="AJ39">
-        <v>0.92317030389936261</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>6.1295580940860975E-2</v>
+        <v>0.15323895235215246</v>
       </c>
       <c r="AL39">
-        <v>0.21374405310015684</v>
+        <v>0.16441850238473604</v>
       </c>
       <c r="AM39">
-        <v>1.005433567371762E-3</v>
+        <v>8.280041143061569E-4</v>
       </c>
       <c r="AN39">
-        <v>1.9156580114973589</v>
+        <v>1.4735830857671959</v>
       </c>
       <c r="AP39">
-        <f t="shared" si="10"/>
-        <v>2.6343974322794006</v>
+        <f t="shared" si="9"/>
+        <v>2.2461110984068231</v>
       </c>
       <c r="AS39">
-        <v>0.13632941744404747</v>
+        <v>0.26376142857005047</v>
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.3">
@@ -5106,38 +5141,38 @@
         <v>22</v>
       </c>
       <c r="AF40">
-        <v>5.4605078811551334E-2</v>
+        <v>9.6361903785090589E-2</v>
       </c>
       <c r="AG40">
-        <v>2.360359821312819</v>
+        <v>1.5735732142085461</v>
       </c>
       <c r="AH40">
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>0.2933913302732864</v>
+        <v>0.20537393119130051</v>
       </c>
       <c r="AJ40">
-        <v>0.66661334081712353</v>
+        <v>0</v>
       </c>
       <c r="AK40">
-        <v>0.15263114537154288</v>
+        <v>0.38157786342885719</v>
       </c>
       <c r="AL40">
-        <v>1.58313072497272E-2</v>
+        <v>1.2177928653636309E-2</v>
       </c>
       <c r="AM40">
-        <v>1.005433567371762E-3</v>
+        <v>8.280041143061569E-4</v>
       </c>
       <c r="AN40">
-        <v>1.9156580114973589</v>
+        <v>1.4735830857671959</v>
       </c>
       <c r="AP40">
-        <f t="shared" si="10"/>
-        <v>2.3366847174791854</v>
+        <f t="shared" si="9"/>
+        <v>1.9348064324755931</v>
       </c>
       <c r="AS40">
-        <v>0.23393265326383772</v>
+        <v>0.3658020189430089</v>
       </c>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.3">
@@ -5175,38 +5210,38 @@
         <v>23</v>
       </c>
       <c r="AF41">
-        <v>1.7394721586711051</v>
+        <v>3.0696567505960677</v>
       </c>
       <c r="AG41">
-        <v>0.18200847625447594</v>
+        <v>0.12133898416965064</v>
       </c>
       <c r="AH41">
-        <v>1.1208618902830247</v>
+        <v>0.71327574836192487</v>
       </c>
       <c r="AI41">
-        <v>0.66013049311489436</v>
+        <v>0.46209134518042605</v>
       </c>
       <c r="AJ41">
-        <v>0.2971113006540016</v>
+        <v>0</v>
       </c>
       <c r="AK41">
-        <v>0.2247846868158489</v>
+        <v>0.56196171703962228</v>
       </c>
       <c r="AL41">
-        <v>8.2230327109994658E-2</v>
+        <v>6.3254097776918969E-2</v>
       </c>
       <c r="AM41">
-        <v>8.1440118957112825E-2</v>
+        <v>6.7068333258798796E-2</v>
       </c>
       <c r="AN41">
-        <v>2.930532235039935</v>
+        <v>2.2542555654153293</v>
       </c>
       <c r="AP41">
-        <f t="shared" si="10"/>
-        <v>2.7052858789600025</v>
+        <f t="shared" si="9"/>
+        <v>2.7042378855786224</v>
       </c>
       <c r="AS41">
-        <v>0.11308908730595291</v>
+        <v>0.1135949423439685</v>
       </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.3">
@@ -5244,19 +5279,19 @@
         <v>24</v>
       </c>
       <c r="AF42">
-        <v>0.61497773907729392</v>
+        <v>1.0852548336658128</v>
       </c>
       <c r="AG42">
-        <v>1.0764290305213504</v>
+        <v>0.71761935368090035</v>
       </c>
       <c r="AH42">
-        <v>0.35104175521783815</v>
+        <v>0.22339020786589703</v>
       </c>
       <c r="AI42">
         <v>0</v>
       </c>
       <c r="AJ42">
-        <v>0.92317030389936261</v>
+        <v>0</v>
       </c>
       <c r="AK42">
         <v>0</v>
@@ -5265,17 +5300,17 @@
         <v>0</v>
       </c>
       <c r="AM42">
-        <v>4.0217342694870515E-3</v>
+        <v>3.3120164572246311E-3</v>
       </c>
       <c r="AN42">
-        <v>1.8655776168062057</v>
+        <v>1.4350597052355398</v>
       </c>
       <c r="AP42">
-        <f t="shared" si="10"/>
-        <v>2.1989129541188159</v>
+        <f t="shared" si="9"/>
+        <v>1.8613533025477389</v>
       </c>
       <c r="AS42">
-        <v>0.27910025693032625</v>
+        <v>0.38987875650220638</v>
       </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.3">
@@ -5313,38 +5348,38 @@
         <v>25</v>
       </c>
       <c r="AF43">
-        <v>5.2769745797776171E-2</v>
+        <v>9.3123080819604992E-2</v>
       </c>
       <c r="AG43">
-        <v>0.38751445098768611</v>
+        <v>0.25834296732512407</v>
       </c>
       <c r="AH43">
-        <v>0.35104175521783815</v>
+        <v>0.22339020786589703</v>
       </c>
       <c r="AI43">
         <v>0</v>
       </c>
       <c r="AJ43">
-        <v>0.84713342150750381</v>
+        <v>0</v>
       </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>8.5620915358178534E-2</v>
+        <v>6.5862242583214256E-2</v>
       </c>
       <c r="AM43">
-        <v>4.0217342694870515E-3</v>
+        <v>3.3120164572246311E-3</v>
       </c>
       <c r="AN43">
-        <v>1.8655776168062057</v>
+        <v>1.4350597052355398</v>
       </c>
       <c r="AP43">
-        <f t="shared" si="10"/>
-        <v>1.8957003033034192</v>
+        <f t="shared" si="9"/>
+        <v>1.4419050663225388</v>
       </c>
       <c r="AS43">
-        <v>0.37850661208361125</v>
+        <v>0.52736704479137275</v>
       </c>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.3">
@@ -5382,38 +5417,38 @@
         <v>26</v>
       </c>
       <c r="AF44">
-        <v>0.28166871449015141</v>
+        <v>0.49706243733556121</v>
       </c>
       <c r="AG44">
-        <v>3.6443581257330847E-2</v>
+        <v>2.4295720838220566E-2</v>
       </c>
       <c r="AH44">
-        <v>1.1208618902830247</v>
+        <v>0.71327574836192487</v>
       </c>
       <c r="AI44">
-        <v>0.45842395355201004</v>
+        <v>0.32089676748640705</v>
       </c>
       <c r="AJ44">
-        <v>0.4517322976637731</v>
+        <v>0</v>
       </c>
       <c r="AK44">
-        <v>0.13426184049286188</v>
+        <v>0.33565460123215468</v>
       </c>
       <c r="AL44">
-        <v>8.5620915358178534E-2</v>
+        <v>6.5862242583214256E-2</v>
       </c>
       <c r="AM44">
-        <v>0.12165746165198338</v>
+        <v>0.10018849783104514</v>
       </c>
       <c r="AN44">
-        <v>1.9156580114973589</v>
+        <v>1.4735830857671959</v>
       </c>
       <c r="AP44">
-        <f t="shared" si="10"/>
-        <v>2.1462359297725571</v>
+        <f t="shared" si="9"/>
+        <v>1.8790473920142952</v>
       </c>
       <c r="AS44">
-        <v>0.29637008711881174</v>
+        <v>0.38407892266457866</v>
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.3">
@@ -5451,38 +5486,38 @@
         <v>27</v>
       </c>
       <c r="AF45">
-        <v>0.36720778221764033</v>
+        <v>0.64801373332524759</v>
       </c>
       <c r="AG45">
-        <v>1.3119689252639097E-2</v>
+        <v>8.7464595017593995E-3</v>
       </c>
       <c r="AH45">
-        <v>1.1208618902830247</v>
+        <v>0.71327574836192487</v>
       </c>
       <c r="AI45">
-        <v>0.2933913302732864</v>
+        <v>0.20537393119130051</v>
       </c>
       <c r="AJ45">
-        <v>0.28465520170565534</v>
+        <v>0</v>
       </c>
       <c r="AK45">
-        <v>0.23909107540744587</v>
+        <v>0.59772768851861469</v>
       </c>
       <c r="AL45">
-        <v>0.37758823672956726</v>
+        <v>0.29045248979197485</v>
       </c>
       <c r="AM45">
-        <v>0.1447824337015339</v>
+        <v>0.11923259246008676</v>
       </c>
       <c r="AN45">
-        <v>1.9156580114973589</v>
+        <v>1.4735830857671959</v>
       </c>
       <c r="AP45">
-        <f t="shared" si="10"/>
-        <v>2.1809070707089178</v>
+        <f t="shared" si="9"/>
+        <v>2.0140520670822055</v>
       </c>
       <c r="AS45">
-        <v>0.285003372239927</v>
+        <v>0.33982659285824601</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.3">
@@ -5520,38 +5555,38 @@
         <v>28</v>
       </c>
       <c r="AF46">
-        <v>4.5334294100943268E-3</v>
+        <v>8.0001695472252821E-3</v>
       </c>
       <c r="AG46">
-        <v>0.12385030745024402</v>
+        <v>8.256687163349602E-2</v>
       </c>
       <c r="AH46">
-        <v>0.81595273874740193</v>
+        <v>0.51924265193016494</v>
       </c>
       <c r="AI46">
-        <v>7.33478325683216E-2</v>
+        <v>5.1343482797825128E-2</v>
       </c>
       <c r="AJ46">
-        <v>0.5159598913845822</v>
+        <v>0</v>
       </c>
       <c r="AK46">
-        <v>4.3250161911871504E-2</v>
+        <v>0.10812540477967876</v>
       </c>
       <c r="AL46">
-        <v>8.5620915358178534E-2</v>
+        <v>6.5862242583214256E-2</v>
       </c>
       <c r="AM46">
-        <v>4.0217342694870515E-3</v>
+        <v>3.3120164572246311E-3</v>
       </c>
       <c r="AN46">
-        <v>1.533587715575448</v>
+        <v>1.1796828581349574</v>
       </c>
       <c r="AP46">
-        <f t="shared" si="10"/>
-        <v>1.7888892438257962</v>
+        <f t="shared" si="9"/>
+        <v>1.420611029755783</v>
       </c>
       <c r="AS46">
-        <v>0.41352394425685091</v>
+        <v>0.53434688255318497</v>
       </c>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.3">
@@ -5589,38 +5624,38 @@
         <v>29</v>
       </c>
       <c r="AF47">
-        <v>1.1776877037793818</v>
+        <v>2.078272418434203</v>
       </c>
       <c r="AG47">
-        <v>0.57049016331182745</v>
+        <v>0.38032677554121835</v>
       </c>
       <c r="AH47">
-        <v>0.35104175521783815</v>
+        <v>0.22339020786589703</v>
       </c>
       <c r="AI47">
         <v>0</v>
       </c>
       <c r="AJ47">
-        <v>0.80515076680793829</v>
+        <v>0</v>
       </c>
       <c r="AK47">
-        <v>6.1295580940860975E-2</v>
+        <v>0.15323895235215246</v>
       </c>
       <c r="AL47">
-        <v>0.12329411811577708</v>
+        <v>9.4841629319828522E-2</v>
       </c>
       <c r="AM47">
-        <v>4.9266244801216393E-2</v>
+        <v>4.0572201601001737E-2</v>
       </c>
       <c r="AN47">
-        <v>1.533587715575448</v>
+        <v>1.1796828581349574</v>
       </c>
       <c r="AP47">
-        <f t="shared" si="10"/>
-        <v>2.1614379585244374</v>
+        <f t="shared" si="9"/>
+        <v>2.037234655912092</v>
       </c>
       <c r="AS47">
-        <v>0.29138619787442821</v>
+        <v>0.33222771847742405</v>
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.3">
@@ -5658,41 +5693,41 @@
         <v>30</v>
       </c>
       <c r="AF48">
-        <v>1.1099215617322973</v>
+        <v>1.9586851089393478</v>
       </c>
       <c r="AG48">
         <v>0</v>
       </c>
       <c r="AH48">
-        <v>1.4740274172294543</v>
+        <v>0.93801744732783465</v>
       </c>
       <c r="AI48">
-        <v>1.1712743205244911</v>
+        <v>0.81989202436714381</v>
       </c>
       <c r="AJ48">
         <v>0</v>
       </c>
       <c r="AK48">
-        <v>1.4122501848774365</v>
+        <v>3.5306254621935915</v>
       </c>
       <c r="AL48">
-        <v>1.510352946918269</v>
+        <v>1.1618099591678994</v>
       </c>
       <c r="AM48">
-        <v>0.6796730915433119</v>
+        <v>0.55973078127096276</v>
       </c>
       <c r="AN48">
-        <v>3.2505824395231331</v>
+        <v>2.5004480304024046</v>
       </c>
       <c r="AP48">
-        <f t="shared" si="10"/>
-        <v>3.2570050602276308</v>
+        <f t="shared" si="9"/>
+        <v>3.3866220358447419</v>
       </c>
       <c r="AS48">
-        <v>-6.778856648086129E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
+        <v>-0.11007944861323793</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>27</v>
       </c>
@@ -5727,41 +5762,41 @@
         <v>31</v>
       </c>
       <c r="AF49">
-        <v>0.37687073210213229</v>
+        <v>0.66506599782729214</v>
       </c>
       <c r="AG49">
-        <v>2.7556583181346572E-2</v>
+        <v>1.8371055454231049E-2</v>
       </c>
       <c r="AH49">
-        <v>1.1208618902830247</v>
+        <v>0.71327574836192487</v>
       </c>
       <c r="AI49">
-        <v>0.45842395355201004</v>
+        <v>0.32089676748640705</v>
       </c>
       <c r="AJ49">
-        <v>0.61124104656280487</v>
+        <v>0</v>
       </c>
       <c r="AK49">
-        <v>4.3250161911871504E-2</v>
+        <v>0.10812540477967876</v>
       </c>
       <c r="AL49">
-        <v>0.30909150444302452</v>
+        <v>0.23776269572540346</v>
       </c>
       <c r="AM49">
-        <v>0.16991827288582798</v>
+        <v>0.13993269531774069</v>
       </c>
       <c r="AN49">
-        <v>1.533587715575448</v>
+        <v>1.1796828581349574</v>
       </c>
       <c r="AP49">
-        <f t="shared" si="10"/>
-        <v>2.1565717842208478</v>
+        <f t="shared" si="9"/>
+        <v>1.8393241212705376</v>
       </c>
       <c r="AS49">
-        <v>0.29298154242802643</v>
-      </c>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
+        <v>0.39709956270578295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -5799,38 +5834,38 @@
         <v>0</v>
       </c>
       <c r="AG50">
-        <v>1.5088882686778121E-3</v>
+        <v>1.0059255124518749E-3</v>
       </c>
       <c r="AH50">
-        <v>1.4272804930638734</v>
+        <v>0.90826940467701045</v>
       </c>
       <c r="AI50">
-        <v>1.0314538954920225</v>
+        <v>0.72201772684441579</v>
       </c>
       <c r="AJ50">
-        <v>5.993864144908724E-2</v>
+        <v>0</v>
       </c>
       <c r="AK50">
-        <v>0.98072929505377571</v>
+        <v>2.4518232376344393</v>
       </c>
       <c r="AL50">
-        <v>0.72007189816228145</v>
+        <v>0.55390146012483188</v>
       </c>
       <c r="AM50">
-        <v>1.0295639729886858</v>
+        <v>0.847876213049506</v>
       </c>
       <c r="AN50">
-        <v>3.0565623673752875</v>
+        <v>2.3512018210579084</v>
       </c>
       <c r="AP50">
-        <f t="shared" si="10"/>
-        <v>2.8822056574529324</v>
+        <f t="shared" si="9"/>
+        <v>2.7993027326283531</v>
       </c>
       <c r="AS50">
-        <v>5.5087053791803564E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
+        <v>8.2434236520135928E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -5862,7 +5897,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>31</v>
       </c>
@@ -5894,7 +5929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -5926,7 +5961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -5935,39 +5970,847 @@
         <v>0.13562876407019236</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" ref="C55:J55" si="15">_xlfn.STDEV.P(C33:C52)/AVERAGE(C33:C52)</f>
+        <f t="shared" ref="C55:J55" si="14">_xlfn.STDEV.P(C33:C52)/AVERAGE(C33:C52)</f>
         <v>0.85420691177665564</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.87663683805534542</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.38841673754322836</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.13614115095060075</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.15774619885044186</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.22433718255810811</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.88471241055086147</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.58446622057711306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AL58" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AL60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AL61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM61">
+        <v>0.62494735756687092</v>
+      </c>
+      <c r="AO61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP61">
+        <v>0.55147379116704709</v>
+      </c>
+      <c r="AU61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV61">
+        <v>0.62114720417549762</v>
+      </c>
+      <c r="AZ61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA61">
+        <v>0.76939001915920546</v>
+      </c>
+      <c r="BD61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE61">
+        <v>0.55980348372295352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AL62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM62">
+        <v>0.50022997267660829</v>
+      </c>
+      <c r="AO62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP62">
+        <v>0.53078391379391066</v>
+      </c>
+      <c r="AU62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV62">
+        <v>0.59553028679788866</v>
+      </c>
+      <c r="AZ62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA62">
+        <v>0.51890498210311353</v>
+      </c>
+      <c r="BD62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE62">
+        <v>0.53979662181718624</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AL63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM63">
+        <v>0.49591016430686852</v>
+      </c>
+      <c r="AO63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP63">
+        <v>0.51040563457247035</v>
+      </c>
+      <c r="AU63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV63">
+        <v>0.59552226930047214</v>
+      </c>
+      <c r="AZ63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA63">
+        <v>0.48550681010428109</v>
+      </c>
+      <c r="BD63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE63">
+        <v>0.53434688255318497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AL64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM64">
+        <v>0.47933921480702602</v>
+      </c>
+      <c r="AO64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP64">
+        <v>0.47594629871665295</v>
+      </c>
+      <c r="AU64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV64">
+        <v>0.56733459096906802</v>
+      </c>
+      <c r="AZ64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA64">
+        <v>0.40128851108153663</v>
+      </c>
+      <c r="BD64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE64">
+        <v>0.52736704479137275</v>
+      </c>
+    </row>
+    <row r="65" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM65">
+        <v>0.43635834979972721</v>
+      </c>
+      <c r="AO65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP65">
+        <v>0.45705850280384019</v>
+      </c>
+      <c r="AU65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV65">
+        <v>0.54182008084384026</v>
+      </c>
+      <c r="AZ65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA65">
+        <v>0.38787675040343794</v>
+      </c>
+      <c r="BD65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE65">
+        <v>0.44020310232598014</v>
+      </c>
+    </row>
+    <row r="66" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM66">
+        <v>0.42008619182600593</v>
+      </c>
+      <c r="AO66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP66">
+        <v>0.44129411892300685</v>
+      </c>
+      <c r="AU66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV66">
+        <v>0.51899944607638537</v>
+      </c>
+      <c r="AZ66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA66">
+        <v>0.37252600744966802</v>
+      </c>
+      <c r="BD66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE66">
+        <v>0.43548709868174995</v>
+      </c>
+    </row>
+    <row r="67" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM67">
+        <v>0.41667944766976528</v>
+      </c>
+      <c r="AO67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP67">
+        <v>0.42828298187451697</v>
+      </c>
+      <c r="AU67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV67">
+        <v>0.51254591949390649</v>
+      </c>
+      <c r="AZ67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA67">
+        <v>0.36234040171373361</v>
+      </c>
+      <c r="BD67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE67">
+        <v>0.42516518152187044</v>
+      </c>
+    </row>
+    <row r="68" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM68">
+        <v>0.38456805243629621</v>
+      </c>
+      <c r="AO68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP68">
+        <v>0.42034414484398275</v>
+      </c>
+      <c r="AU68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV68">
+        <v>0.46781882074398351</v>
+      </c>
+      <c r="AZ68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA68">
+        <v>0.35591584745479665</v>
+      </c>
+      <c r="BD68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE68">
+        <v>0.40241647638049094</v>
+      </c>
+    </row>
+    <row r="69" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM69">
+        <v>0.38393150855173963</v>
+      </c>
+      <c r="AO69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP69">
+        <v>0.4057649645772442</v>
+      </c>
+      <c r="AU69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV69">
+        <v>0.41204685599798063</v>
+      </c>
+      <c r="AZ69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA69">
+        <v>0.35157229108315236</v>
+      </c>
+      <c r="BD69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE69">
+        <v>0.39709956270578295</v>
+      </c>
+    </row>
+    <row r="70" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM70">
+        <v>0.36674960769433895</v>
+      </c>
+      <c r="AO70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP70">
+        <v>0.39521497215279944</v>
+      </c>
+      <c r="AU70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV70">
+        <v>0.41023339839930084</v>
+      </c>
+      <c r="AZ70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA70">
+        <v>0.342875245840361</v>
+      </c>
+      <c r="BD70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE70">
+        <v>0.38987875650220638</v>
+      </c>
+    </row>
+    <row r="71" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM71">
+        <v>0.36391662711483563</v>
+      </c>
+      <c r="AO71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP71">
+        <v>0.3902853106843519</v>
+      </c>
+      <c r="AU71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV71">
+        <v>0.37101227025586081</v>
+      </c>
+      <c r="AZ71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA71">
+        <v>0.33410358448073363</v>
+      </c>
+      <c r="BD71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE71">
+        <v>0.38407892266457866</v>
+      </c>
+    </row>
+    <row r="72" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM72">
+        <v>0.34310305033743549</v>
+      </c>
+      <c r="AO72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP72">
+        <v>0.33779995223646619</v>
+      </c>
+      <c r="AU72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV72">
+        <v>0.36682939825185867</v>
+      </c>
+      <c r="AZ72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA72">
+        <v>0.30968746153146565</v>
+      </c>
+      <c r="BD72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE72">
+        <v>0.3658020189430089</v>
+      </c>
+    </row>
+    <row r="73" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM73">
+        <v>0.3390125552253126</v>
+      </c>
+      <c r="AO73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP73">
+        <v>0.33754504997846135</v>
+      </c>
+      <c r="AU73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV73">
+        <v>0.36393487331046015</v>
+      </c>
+      <c r="AZ73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA73">
+        <v>0.30853411710351941</v>
+      </c>
+      <c r="BD73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE73">
+        <v>0.33982659285824601</v>
+      </c>
+    </row>
+    <row r="74" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM74">
+        <v>0.32527641225334136</v>
+      </c>
+      <c r="AO74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP74">
+        <v>0.31497838226859642</v>
+      </c>
+      <c r="AU74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV74">
+        <v>0.35979430005273561</v>
+      </c>
+      <c r="AZ74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA74">
+        <v>0.29580260048059315</v>
+      </c>
+      <c r="BD74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE74">
+        <v>0.33222771847742405</v>
+      </c>
+    </row>
+    <row r="75" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM75">
+        <v>0.30681491533644123</v>
+      </c>
+      <c r="AO75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP75">
+        <v>0.28602238769337851</v>
+      </c>
+      <c r="AU75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV75">
+        <v>0.34238307172344307</v>
+      </c>
+      <c r="AZ75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA75">
+        <v>0.29010981254640256</v>
+      </c>
+      <c r="BD75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE75">
+        <v>0.30041287580827525</v>
+      </c>
+    </row>
+    <row r="76" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM76">
+        <v>0.30027376344499501</v>
+      </c>
+      <c r="AO76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP76">
+        <v>0.27141912574816207</v>
+      </c>
+      <c r="AU76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV76">
+        <v>0.31945707389096833</v>
+      </c>
+      <c r="AZ76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA76">
+        <v>0.28090716411067074</v>
+      </c>
+      <c r="BD76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE76">
+        <v>0.26376142857005047</v>
+      </c>
+    </row>
+    <row r="77" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM77">
+        <v>0.299984444307688</v>
+      </c>
+      <c r="AO77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP77">
+        <v>0.24501280504263967</v>
+      </c>
+      <c r="AU77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV77">
+        <v>0.31400416217341864</v>
+      </c>
+      <c r="AZ77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA77">
+        <v>0.27772987861748222</v>
+      </c>
+      <c r="BD77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE77">
+        <v>0.25164960078679122</v>
+      </c>
+    </row>
+    <row r="78" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM78">
+        <v>0.27946176953382684</v>
+      </c>
+      <c r="AO78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP78">
+        <v>0.24479523416143945</v>
+      </c>
+      <c r="AU78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV78">
+        <v>0.30400139671521531</v>
+      </c>
+      <c r="AZ78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA78">
+        <v>0.27552378749462325</v>
+      </c>
+      <c r="BD78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE78">
+        <v>0.2220349684447761</v>
+      </c>
+    </row>
+    <row r="79" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM79">
+        <v>0.20939939572773381</v>
+      </c>
+      <c r="AO79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP79">
+        <v>0.19407009438751299</v>
+      </c>
+      <c r="AU79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV79">
+        <v>0.2839883240036829</v>
+      </c>
+      <c r="AZ79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA79">
+        <v>0.2704882747104862</v>
+      </c>
+      <c r="BD79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE79">
+        <v>0.19809533278625058</v>
+      </c>
+    </row>
+    <row r="80" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM80">
+        <v>0.18197304240476309</v>
+      </c>
+      <c r="AO80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP80">
+        <v>0.18520153067434442</v>
+      </c>
+      <c r="AU80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV80">
+        <v>0.24062838181354174</v>
+      </c>
+      <c r="AZ80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA80">
+        <v>0.14560528197918088</v>
+      </c>
+      <c r="BD80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE80">
+        <v>0.11944933282776127</v>
+      </c>
+    </row>
+    <row r="81" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM81">
+        <v>0.11769678430136943</v>
+      </c>
+      <c r="AO81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP81">
+        <v>6.867037861472125E-2</v>
+      </c>
+      <c r="AU81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV81">
+        <v>0.13574336540547594</v>
+      </c>
+      <c r="AZ81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA81">
+        <v>9.1411104143259037E-2</v>
+      </c>
+      <c r="BD81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE81">
+        <v>0.1135949423439685</v>
+      </c>
+    </row>
+    <row r="82" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM82">
+        <v>3.7981652649661246E-3</v>
+      </c>
+      <c r="AO82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP82">
+        <v>4.089947494527213E-2</v>
+      </c>
+      <c r="AU82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV82">
+        <v>-1.3916195886682914E-3</v>
+      </c>
+      <c r="AZ82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA82">
+        <v>3.724946636558657E-2</v>
+      </c>
+      <c r="BD82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE82">
+        <v>8.2434236520135928E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM83">
+        <v>-0.12836173328119838</v>
+      </c>
+      <c r="AO83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP83">
+        <v>-0.1020308605112441</v>
+      </c>
+      <c r="AU83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV83">
+        <v>-0.14760418089943483</v>
+      </c>
+      <c r="AZ83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA83">
+        <v>-1.4909497454846043E-2</v>
+      </c>
+      <c r="BD83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE83">
+        <v>-0.11007944861323793</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/DaneTelefonow — kopia.xlsx
+++ b/DaneTelefonow — kopia.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapar\Python\BOT\Statystyczna-analiza-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEAB1DF-9D0F-424B-8BFD-FEDAD6AED309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CB84AA-AA66-4C72-8440-98D38DCE1232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="151">
   <si>
     <t>Telefon\zmienne</t>
   </si>
@@ -214,13 +214,307 @@
   </si>
   <si>
     <t>0.04,0.04,0.17,0.04,0.15,0.03,0.1,0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topsis </t>
+  </si>
+  <si>
+    <t>Telefony</t>
+  </si>
+  <si>
+    <t>Wynik</t>
+  </si>
+  <si>
+    <t>0.283938</t>
+  </si>
+  <si>
+    <t>0.317593</t>
+  </si>
+  <si>
+    <t>0.320637</t>
+  </si>
+  <si>
+    <t>0.341732</t>
+  </si>
+  <si>
+    <t>0.343075</t>
+  </si>
+  <si>
+    <t>0.369927</t>
+  </si>
+  <si>
+    <t>0.418687</t>
+  </si>
+  <si>
+    <t>0.418814</t>
+  </si>
+  <si>
+    <t>0.458432</t>
+  </si>
+  <si>
+    <t>0.482615</t>
+  </si>
+  <si>
+    <t>0.484246</t>
+  </si>
+  <si>
+    <t>0.490208</t>
+  </si>
+  <si>
+    <t>0.496046</t>
+  </si>
+  <si>
+    <t>0.497433</t>
+  </si>
+  <si>
+    <t>0.506588</t>
+  </si>
+  <si>
+    <t>0.511552</t>
+  </si>
+  <si>
+    <t>0.534508</t>
+  </si>
+  <si>
+    <t>0.554656</t>
+  </si>
+  <si>
+    <t>0.557178</t>
+  </si>
+  <si>
+    <t>0.563787</t>
+  </si>
+  <si>
+    <t>0.697873</t>
+  </si>
+  <si>
+    <t>0.742722</t>
+  </si>
+  <si>
+    <t>0.749902</t>
+  </si>
+  <si>
+    <t>bez wag</t>
+  </si>
+  <si>
+    <t>gamer</t>
+  </si>
+  <si>
+    <t>0.290045</t>
+  </si>
+  <si>
+    <t>0.290055</t>
+  </si>
+  <si>
+    <t>0.297188</t>
+  </si>
+  <si>
+    <t>0.320119</t>
+  </si>
+  <si>
+    <t>0.323317</t>
+  </si>
+  <si>
+    <t>0.325017</t>
+  </si>
+  <si>
+    <t>0.334036</t>
+  </si>
+  <si>
+    <t>0.336394</t>
+  </si>
+  <si>
+    <t>0.337703</t>
+  </si>
+  <si>
+    <t>0.341779</t>
+  </si>
+  <si>
+    <t>0.348917</t>
+  </si>
+  <si>
+    <t>0.363226</t>
+  </si>
+  <si>
+    <t>0.386985</t>
+  </si>
+  <si>
+    <t>0.388855</t>
+  </si>
+  <si>
+    <t>0.398792</t>
+  </si>
+  <si>
+    <t>0.400527</t>
+  </si>
+  <si>
+    <t>0.401309</t>
+  </si>
+  <si>
+    <t>0.428295</t>
+  </si>
+  <si>
+    <t>0.435973</t>
+  </si>
+  <si>
+    <t>0.459780</t>
+  </si>
+  <si>
+    <t>0.526710</t>
+  </si>
+  <si>
+    <t>0.631251</t>
+  </si>
+  <si>
+    <t>0.657087</t>
+  </si>
+  <si>
+    <t>darmo to uczciwa cena</t>
+  </si>
+  <si>
+    <t>0.203350</t>
+  </si>
+  <si>
+    <t>0.453502</t>
+  </si>
+  <si>
+    <t>0.480114</t>
+  </si>
+  <si>
+    <t>0.509167</t>
+  </si>
+  <si>
+    <t>0.510150</t>
+  </si>
+  <si>
+    <t>0.545857</t>
+  </si>
+  <si>
+    <t>0.550050</t>
+  </si>
+  <si>
+    <t>0.557052</t>
+  </si>
+  <si>
+    <t>0.558779</t>
+  </si>
+  <si>
+    <t>0.593891</t>
+  </si>
+  <si>
+    <t>0.595715</t>
+  </si>
+  <si>
+    <t>0.609469</t>
+  </si>
+  <si>
+    <t>0.611713</t>
+  </si>
+  <si>
+    <t>0.621292</t>
+  </si>
+  <si>
+    <t>0.622526</t>
+  </si>
+  <si>
+    <t>0.627393</t>
+  </si>
+  <si>
+    <t>0.631199</t>
+  </si>
+  <si>
+    <t>0.651576</t>
+  </si>
+  <si>
+    <t>0.657959</t>
+  </si>
+  <si>
+    <t>0.715233</t>
+  </si>
+  <si>
+    <t>0.791997</t>
+  </si>
+  <si>
+    <t>0.806824</t>
+  </si>
+  <si>
+    <t>0.808191</t>
+  </si>
+  <si>
+    <t>0.252726</t>
+  </si>
+  <si>
+    <t>0.354860</t>
+  </si>
+  <si>
+    <t>0.377634</t>
+  </si>
+  <si>
+    <t>0.400842</t>
+  </si>
+  <si>
+    <t>0.403805</t>
+  </si>
+  <si>
+    <t>0.438901</t>
+  </si>
+  <si>
+    <t>0.439437</t>
+  </si>
+  <si>
+    <t>0.439452</t>
+  </si>
+  <si>
+    <t>0.441695</t>
+  </si>
+  <si>
+    <t>0.446372</t>
+  </si>
+  <si>
+    <t>0.456137</t>
+  </si>
+  <si>
+    <t>0.456823</t>
+  </si>
+  <si>
+    <t>0.458803</t>
+  </si>
+  <si>
+    <t>0.468655</t>
+  </si>
+  <si>
+    <t>0.470098</t>
+  </si>
+  <si>
+    <t>0.470927</t>
+  </si>
+  <si>
+    <t>0.501045</t>
+  </si>
+  <si>
+    <t>0.503543</t>
+  </si>
+  <si>
+    <t>0.516314</t>
+  </si>
+  <si>
+    <t>0.540027</t>
+  </si>
+  <si>
+    <t>0.561638</t>
+  </si>
+  <si>
+    <t>0.583056</t>
+  </si>
+  <si>
+    <t>0.591805</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +666,11 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="33">
@@ -716,13 +1015,16 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -770,7 +1072,25 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -806,7 +1126,7 @@
     <sortCondition descending="1" ref="AM60:AM83"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5E4E41F0-21EB-49E0-8560-CDECE36A53F5}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{5E4E41F0-21EB-49E0-8560-CDECE36A53F5}" name="Column1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{6D7A0800-91FA-4488-92E1-55BF25492995}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -820,7 +1140,7 @@
     <sortCondition descending="1" ref="AP60:AP83"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{46D03E15-446A-4A13-8535-F90E01DC4960}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{46D03E15-446A-4A13-8535-F90E01DC4960}" name="Column1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{48709206-E7EE-4CD4-B18A-B22993D3B533}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -834,7 +1154,7 @@
     <sortCondition descending="1" ref="AV60:AV83"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{505018E7-C095-4CE5-80A5-CA10C7A7C508}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{505018E7-C095-4CE5-80A5-CA10C7A7C508}" name="Column1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{EDF138DE-7760-498E-9B46-7CFCA4E3D670}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -849,7 +1169,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E0822194-B129-49F6-BB82-DF7EAB6292EC}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{F275683F-D9F1-44D3-A72E-01155F1B8C41}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F275683F-D9F1-44D3-A72E-01155F1B8C41}" name="Column2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{2CE8C2CB-C79B-4BEF-A913-D26C41AD3FB5}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -863,8 +1183,52 @@
     <sortCondition descending="1" ref="BE60:BE83"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7AB86428-F3FB-40C8-876F-08F0AE62BB59}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7AB86428-F3FB-40C8-876F-08F0AE62BB59}" name="Column1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{222B7C09-346D-486B-8B48-CBC0D7856668}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4DF14AFB-7EEC-4908-ADDE-3D8329351560}" name="Table2" displayName="Table2" ref="AO90:AP114" totalsRowShown="0">
+  <autoFilter ref="AO90:AP114" xr:uid="{4DF14AFB-7EEC-4908-ADDE-3D8329351560}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E3C1DDC1-E51C-4BDF-AB5F-197963A7E036}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{775481A6-96CF-4074-A1FA-DA124BC7B831}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{147DBB42-87F2-445A-BCB3-2DA2A5AA84B9}" name="Table3" displayName="Table3" ref="AI90:AJ113" totalsRowShown="0">
+  <autoFilter ref="AI90:AJ113" xr:uid="{147DBB42-87F2-445A-BCB3-2DA2A5AA84B9}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D717C74B-B4A7-415A-BBE7-453F3A68DBA4}" name="Telefony"/>
+    <tableColumn id="2" xr3:uid="{CABF808E-BC81-45F3-A464-F333F93F547B}" name="Wynik"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{31EDCAE9-F03F-420E-A1C5-6980FDA6B95A}" name="Table8" displayName="Table8" ref="AL90:AM113" totalsRowShown="0">
+  <autoFilter ref="AL90:AM113" xr:uid="{31EDCAE9-F03F-420E-A1C5-6980FDA6B95A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{76722460-2C03-4FC5-9663-039F86D23DBA}" name="Telefony"/>
+    <tableColumn id="2" xr3:uid="{365B6CDB-D38E-4C10-943A-CAE830706F8E}" name="Wynik"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{160C34D0-C7C3-4458-8A30-1C3D54DECE9E}" name="Table9" displayName="Table9" ref="AR90:AS113" totalsRowShown="0">
+  <autoFilter ref="AR90:AS113" xr:uid="{160C34D0-C7C3-4458-8A30-1C3D54DECE9E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{64C11E65-062D-412C-9CAF-6CB60235CDF4}" name="Telefony"/>
+    <tableColumn id="2" xr3:uid="{4A19BA68-ED21-4151-B6CF-08E4EC1849A7}" name="Wynik"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1167,13 +1531,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE83"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:BE114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ61" sqref="AZ61:BA83"/>
+    <sheetView tabSelected="1" topLeftCell="AF58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU89" sqref="AU89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
@@ -1190,9 +1555,10 @@
     <col min="35" max="37" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.33203125" customWidth="1"/>
+    <col min="40" max="40" width="10.5546875" customWidth="1"/>
     <col min="41" max="41" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10.6640625" customWidth="1"/>
+    <col min="44" max="44" width="10.5546875" customWidth="1"/>
     <col min="47" max="48" width="10.6640625" customWidth="1"/>
     <col min="51" max="51" width="10.6640625" customWidth="1"/>
     <col min="52" max="52" width="27.6640625" bestFit="1" customWidth="1"/>
@@ -1200,7 +1566,7 @@
     <col min="56" max="57" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1823,7 @@
         <v>0.30681491533644123</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1582,7 +1948,7 @@
         <v>0.36391662711483563</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1707,7 +2073,7 @@
         <v>0.41667944766976528</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1832,7 +2198,7 @@
         <v>0.27946176953382684</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1957,7 +2323,7 @@
         <v>0.20939939572773381</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2082,7 +2448,7 @@
         <v>0.38393150855173963</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2207,7 +2573,7 @@
         <v>0.50022997267660829</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2332,7 +2698,7 @@
         <v>0.299984444307688</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2457,7 +2823,7 @@
         <v>0.11769678430136943</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2582,7 +2948,7 @@
         <v>0.62494735756687092</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2707,7 +3073,7 @@
         <v>0.36674960769433895</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2832,7 +3198,7 @@
         <v>0.32527641225334136</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2957,7 +3323,7 @@
         <v>0.38456805243629621</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3082,7 +3448,7 @@
         <v>0.18197304240476309</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -3207,7 +3573,7 @@
         <v>0.43635834979972721</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3332,7 +3698,7 @@
         <v>0.49591016430686852</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -3457,7 +3823,7 @@
         <v>0.34310305033743549</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -3582,7 +3948,7 @@
         <v>0.30027376344499501</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -3707,7 +4073,7 @@
         <v>0.47933921480702602</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -3832,7 +4198,7 @@
         <v>0.42008619182600593</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -3950,14 +4316,14 @@
         <v>25.004480304024078</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="9"/>
+        <f>SQRT(SUM(AF22:AN22))</f>
         <v>10.272872219220055</v>
       </c>
       <c r="AS22">
         <v>-0.12836173328119838</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -4082,7 +4448,7 @@
         <v>0.3390125552253126</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -4207,7 +4573,7 @@
         <v>3.7981652649661246E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45">
       <c r="K26" t="s">
         <v>33</v>
       </c>
@@ -4315,7 +4681,7 @@
         <v>9.9999999999999867E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45">
       <c r="K27" t="s">
         <v>34</v>
       </c>
@@ -4392,7 +4758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45">
       <c r="AE28" s="1" t="s">
         <v>10</v>
       </c>
@@ -4437,7 +4803,7 @@
         <v>0.30041287580827525</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45">
       <c r="AE29" s="1" t="s">
         <v>11</v>
       </c>
@@ -4476,7 +4842,7 @@
         <v>0.43548709868174995</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45">
       <c r="AE30" s="1" t="s">
         <v>12</v>
       </c>
@@ -4515,7 +4881,7 @@
         <v>0.44020310232598014</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45">
       <c r="AE31" s="1" t="s">
         <v>13</v>
       </c>
@@ -4554,7 +4920,7 @@
         <v>0.2220349684447761</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -4623,7 +4989,7 @@
         <v>0.11944933282776127</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -4692,7 +5058,7 @@
         <v>0.42516518152187044</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -4761,7 +5127,7 @@
         <v>0.53979662181718624</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -4830,7 +5196,7 @@
         <v>0.25164960078679122</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -4899,7 +5265,7 @@
         <v>0.19809533278625058</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -4968,7 +5334,7 @@
         <v>0.55980348372295352</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -5037,7 +5403,7 @@
         <v>0.40241647638049094</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -5106,7 +5472,7 @@
         <v>0.26376142857005047</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -5175,7 +5541,7 @@
         <v>0.3658020189430089</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -5244,7 +5610,7 @@
         <v>0.1135949423439685</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -5313,7 +5679,7 @@
         <v>0.38987875650220638</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -5382,7 +5748,7 @@
         <v>0.52736704479137275</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -5451,7 +5817,7 @@
         <v>0.38407892266457866</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -5520,7 +5886,7 @@
         <v>0.33982659285824601</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -5589,7 +5955,7 @@
         <v>0.53434688255318497</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -5658,7 +6024,7 @@
         <v>0.33222771847742405</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -5727,7 +6093,7 @@
         <v>-0.11007944861323793</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57">
       <c r="A49" s="1" t="s">
         <v>27</v>
       </c>
@@ -5796,7 +6162,7 @@
         <v>0.39709956270578295</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -5865,7 +6231,7 @@
         <v>8.2434236520135928E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -5897,7 +6263,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57">
       <c r="A52" s="1" t="s">
         <v>31</v>
       </c>
@@ -5929,7 +6295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -5961,7 +6327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -6002,7 +6368,7 @@
         <v>0.58446622057711306</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57">
       <c r="AL58" t="s">
         <v>43</v>
       </c>
@@ -6031,7 +6397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57">
       <c r="AL60" s="1" t="s">
         <v>41</v>
       </c>
@@ -6066,7 +6432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:57">
       <c r="AL61" s="1" t="s">
         <v>19</v>
       </c>
@@ -6098,7 +6464,7 @@
         <v>0.55980348372295352</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57">
       <c r="AL62" s="1" t="s">
         <v>16</v>
       </c>
@@ -6130,7 +6496,7 @@
         <v>0.53979662181718624</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57">
       <c r="AL63" s="1" t="s">
         <v>25</v>
       </c>
@@ -6162,7 +6528,7 @@
         <v>0.53434688255318497</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57">
       <c r="AL64" s="1" t="s">
         <v>28</v>
       </c>
@@ -6194,7 +6560,7 @@
         <v>0.52736704479137275</v>
       </c>
     </row>
-    <row r="65" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="65" spans="38:57">
       <c r="AL65" s="1" t="s">
         <v>24</v>
       </c>
@@ -6226,7 +6592,7 @@
         <v>0.44020310232598014</v>
       </c>
     </row>
-    <row r="66" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="66" spans="38:57">
       <c r="AL66" s="1" t="s">
         <v>29</v>
       </c>
@@ -6258,7 +6624,7 @@
         <v>0.43548709868174995</v>
       </c>
     </row>
-    <row r="67" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="67" spans="38:57">
       <c r="AL67" s="1" t="s">
         <v>12</v>
       </c>
@@ -6290,7 +6656,7 @@
         <v>0.42516518152187044</v>
       </c>
     </row>
-    <row r="68" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="68" spans="38:57">
       <c r="AL68" s="1" t="s">
         <v>22</v>
       </c>
@@ -6322,7 +6688,7 @@
         <v>0.40241647638049094</v>
       </c>
     </row>
-    <row r="69" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="69" spans="38:57">
       <c r="AL69" s="1" t="s">
         <v>15</v>
       </c>
@@ -6354,7 +6720,7 @@
         <v>0.39709956270578295</v>
       </c>
     </row>
-    <row r="70" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="70" spans="38:57">
       <c r="AL70" s="1" t="s">
         <v>20</v>
       </c>
@@ -6386,7 +6752,7 @@
         <v>0.38987875650220638</v>
       </c>
     </row>
-    <row r="71" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="71" spans="38:57">
       <c r="AL71" s="1" t="s">
         <v>11</v>
       </c>
@@ -6418,7 +6784,7 @@
         <v>0.38407892266457866</v>
       </c>
     </row>
-    <row r="72" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="72" spans="38:57">
       <c r="AL72" s="1" t="s">
         <v>26</v>
       </c>
@@ -6450,7 +6816,7 @@
         <v>0.3658020189430089</v>
       </c>
     </row>
-    <row r="73" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="73" spans="38:57">
       <c r="AL73" s="1" t="s">
         <v>31</v>
       </c>
@@ -6482,7 +6848,7 @@
         <v>0.33982659285824601</v>
       </c>
     </row>
-    <row r="74" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="74" spans="38:57">
       <c r="AL74" s="1" t="s">
         <v>21</v>
       </c>
@@ -6514,7 +6880,7 @@
         <v>0.33222771847742405</v>
       </c>
     </row>
-    <row r="75" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="75" spans="38:57">
       <c r="AL75" s="1" t="s">
         <v>10</v>
       </c>
@@ -6546,7 +6912,7 @@
         <v>0.30041287580827525</v>
       </c>
     </row>
-    <row r="76" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="76" spans="38:57">
       <c r="AL76" s="1" t="s">
         <v>27</v>
       </c>
@@ -6578,7 +6944,7 @@
         <v>0.26376142857005047</v>
       </c>
     </row>
-    <row r="77" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="77" spans="38:57">
       <c r="AL77" s="1" t="s">
         <v>17</v>
       </c>
@@ -6610,7 +6976,7 @@
         <v>0.25164960078679122</v>
       </c>
     </row>
-    <row r="78" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="78" spans="38:57">
       <c r="AL78" s="1" t="s">
         <v>13</v>
       </c>
@@ -6642,7 +7008,7 @@
         <v>0.2220349684447761</v>
       </c>
     </row>
-    <row r="79" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="79" spans="38:57">
       <c r="AL79" s="1" t="s">
         <v>14</v>
       </c>
@@ -6674,7 +7040,7 @@
         <v>0.19809533278625058</v>
       </c>
     </row>
-    <row r="80" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="80" spans="38:57">
       <c r="AL80" s="1" t="s">
         <v>23</v>
       </c>
@@ -6706,7 +7072,7 @@
         <v>0.11944933282776127</v>
       </c>
     </row>
-    <row r="81" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="81" spans="35:57">
       <c r="AL81" s="1" t="s">
         <v>18</v>
       </c>
@@ -6738,7 +7104,7 @@
         <v>0.1135949423439685</v>
       </c>
     </row>
-    <row r="82" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="82" spans="35:57">
       <c r="AL82" s="1" t="s">
         <v>32</v>
       </c>
@@ -6770,7 +7136,7 @@
         <v>8.2434236520135928E-2</v>
       </c>
     </row>
-    <row r="83" spans="38:57" x14ac:dyDescent="0.3">
+    <row r="83" spans="35:57">
       <c r="AL83" s="1" t="s">
         <v>30</v>
       </c>
@@ -6800,17 +7166,816 @@
       </c>
       <c r="BE83">
         <v>-0.11007944861323793</v>
+      </c>
+    </row>
+    <row r="88" spans="35:57">
+      <c r="AI88" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="35:57">
+      <c r="AL89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="35:57">
+      <c r="AI90" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR90" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS90" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU90" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="35:57">
+      <c r="AI91" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS91" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU91" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="35:57">
+      <c r="AI92" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR92" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS92" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU92" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="35:57">
+      <c r="AI93" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP93" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR93" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS93" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU93" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="35:57">
+      <c r="AI94" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP94" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR94" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS94" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU94" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="35:57">
+      <c r="AI95" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO95" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR95" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS95" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU95" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="35:57">
+      <c r="AI96" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP96" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR96" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS96" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU96" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="35:48">
+      <c r="AI97" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP97" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR97" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS97" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU97" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="35:48">
+      <c r="AI98" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR98" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS98" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU98" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="35:48">
+      <c r="AI99" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO99" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP99" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR99" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS99" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU99" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="35:48">
+      <c r="AI100" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP100" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR100" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS100" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU100" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="35:48">
+      <c r="AI101" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP101" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR101" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS101" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU101" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="35:48">
+      <c r="AI102" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP102" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR102" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS102" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU102" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="35:48">
+      <c r="AI103" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP103" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR103" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS103" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="35:48">
+      <c r="AI104" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP104" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR104" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS104" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU104" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="35:48">
+      <c r="AI105" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP105" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS105" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="35:48">
+      <c r="AI106" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP106" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR106" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS106" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU106" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="35:48">
+      <c r="AI107" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP107" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR107" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS107" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU107" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="35:48">
+      <c r="AI108" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO108" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP108" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR108" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS108" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU108" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="35:48">
+      <c r="AI109" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO109" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR109" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS109" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU109" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="35:48">
+      <c r="AI110" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP110" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR110" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS110" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU110" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="35:48">
+      <c r="AI111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO111" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP111" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS111" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="35:48">
+      <c r="AI112" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR112" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS112" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU112" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="35:48">
+      <c r="AI113" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO113" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP113" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR113" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS113" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU113" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="35:48">
+      <c r="AO114" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP114" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DaneTelefonow — kopia.xlsx
+++ b/DaneTelefonow — kopia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapar\Python\BOT\Statystyczna-analiza-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CB84AA-AA66-4C72-8440-98D38DCE1232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB13DA2C-4211-4CB0-90CF-1A272EA7BFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="176">
   <si>
     <t>Telefon\zmienne</t>
   </si>
@@ -508,13 +508,88 @@
   </si>
   <si>
     <t>0.591805</t>
+  </si>
+  <si>
+    <t>Nazwa telefonu</t>
+  </si>
+  <si>
+    <t>Wartość</t>
+  </si>
+  <si>
+    <t>0.250746</t>
+  </si>
+  <si>
+    <t>0.379469</t>
+  </si>
+  <si>
+    <t>0.399149</t>
+  </si>
+  <si>
+    <t>0.415979</t>
+  </si>
+  <si>
+    <t>0.418318</t>
+  </si>
+  <si>
+    <t>0.425246</t>
+  </si>
+  <si>
+    <t>0.428681</t>
+  </si>
+  <si>
+    <t>0.444818</t>
+  </si>
+  <si>
+    <t>0.448462</t>
+  </si>
+  <si>
+    <t>0.455463</t>
+  </si>
+  <si>
+    <t>0.469355</t>
+  </si>
+  <si>
+    <t>0.469406</t>
+  </si>
+  <si>
+    <t>0.470537</t>
+  </si>
+  <si>
+    <t>0.482311</t>
+  </si>
+  <si>
+    <t>0.482793</t>
+  </si>
+  <si>
+    <t>0.500083</t>
+  </si>
+  <si>
+    <t>0.503907</t>
+  </si>
+  <si>
+    <t>0.504898</t>
+  </si>
+  <si>
+    <t>0.511241</t>
+  </si>
+  <si>
+    <t>0.554818</t>
+  </si>
+  <si>
+    <t>0.623831</t>
+  </si>
+  <si>
+    <t>0.648423</t>
+  </si>
+  <si>
+    <t>0.649238</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,8 +747,23 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF111111"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF111111"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,6 +943,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1015,7 +1111,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,6 +1121,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1072,7 +1177,67 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF111111"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF111111"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF111111"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1126,7 +1291,7 @@
     <sortCondition descending="1" ref="AM60:AM83"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5E4E41F0-21EB-49E0-8560-CDECE36A53F5}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5E4E41F0-21EB-49E0-8560-CDECE36A53F5}" name="Column1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{6D7A0800-91FA-4488-92E1-55BF25492995}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1140,7 +1305,7 @@
     <sortCondition descending="1" ref="AP60:AP83"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{46D03E15-446A-4A13-8535-F90E01DC4960}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{46D03E15-446A-4A13-8535-F90E01DC4960}" name="Column1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{48709206-E7EE-4CD4-B18A-B22993D3B533}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1154,7 +1319,7 @@
     <sortCondition descending="1" ref="AV60:AV83"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{505018E7-C095-4CE5-80A5-CA10C7A7C508}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{505018E7-C095-4CE5-80A5-CA10C7A7C508}" name="Column1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{EDF138DE-7760-498E-9B46-7CFCA4E3D670}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1169,7 +1334,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E0822194-B129-49F6-BB82-DF7EAB6292EC}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{F275683F-D9F1-44D3-A72E-01155F1B8C41}" name="Column2" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F275683F-D9F1-44D3-A72E-01155F1B8C41}" name="Column2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{2CE8C2CB-C79B-4BEF-A913-D26C41AD3FB5}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1183,7 +1348,7 @@
     <sortCondition descending="1" ref="BE60:BE83"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7AB86428-F3FB-40C8-876F-08F0AE62BB59}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7AB86428-F3FB-40C8-876F-08F0AE62BB59}" name="Column1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{222B7C09-346D-486B-8B48-CBC0D7856668}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1194,7 +1359,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4DF14AFB-7EEC-4908-ADDE-3D8329351560}" name="Table2" displayName="Table2" ref="AO90:AP114" totalsRowShown="0">
   <autoFilter ref="AO90:AP114" xr:uid="{4DF14AFB-7EEC-4908-ADDE-3D8329351560}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E3C1DDC1-E51C-4BDF-AB5F-197963A7E036}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E3C1DDC1-E51C-4BDF-AB5F-197963A7E036}" name="Column1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{775481A6-96CF-4074-A1FA-DA124BC7B831}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1202,11 +1367,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{147DBB42-87F2-445A-BCB3-2DA2A5AA84B9}" name="Table3" displayName="Table3" ref="AI90:AJ113" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{147DBB42-87F2-445A-BCB3-2DA2A5AA84B9}" name="Table3" displayName="Table3" ref="AI90:AJ113" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="AI90:AJ113" xr:uid="{147DBB42-87F2-445A-BCB3-2DA2A5AA84B9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D717C74B-B4A7-415A-BBE7-453F3A68DBA4}" name="Telefony"/>
-    <tableColumn id="2" xr3:uid="{CABF808E-BC81-45F3-A464-F333F93F547B}" name="Wynik"/>
+    <tableColumn id="1" xr3:uid="{D717C74B-B4A7-415A-BBE7-453F3A68DBA4}" name="Telefony" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CABF808E-BC81-45F3-A464-F333F93F547B}" name="Wynik" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1532,10 +1697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BE114"/>
+  <dimension ref="A1:BE146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU89" sqref="AU89"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J2:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2824,7 +2989,7 @@
       </c>
     </row>
     <row r="11" spans="1:45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1">
@@ -3074,7 +3239,7 @@
       </c>
     </row>
     <row r="13" spans="1:45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1">
@@ -3199,7 +3364,7 @@
       </c>
     </row>
     <row r="14" spans="1:45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1">
@@ -3449,7 +3614,7 @@
       </c>
     </row>
     <row r="16" spans="1:45">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1">
@@ -3574,7 +3739,7 @@
       </c>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1">
@@ -3949,7 +4114,7 @@
       </c>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1">
@@ -4074,7 +4239,7 @@
       </c>
     </row>
     <row r="21" spans="1:45">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1">
@@ -5542,7 +5707,7 @@
       </c>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="1">
@@ -5680,7 +5845,7 @@
       </c>
     </row>
     <row r="43" spans="1:45">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="1">
@@ -5749,7 +5914,7 @@
       </c>
     </row>
     <row r="44" spans="1:45">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="1">
@@ -5887,7 +6052,7 @@
       </c>
     </row>
     <row r="46" spans="1:45">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="1">
@@ -5956,7 +6121,7 @@
       </c>
     </row>
     <row r="47" spans="1:45">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="1">
@@ -6163,7 +6328,7 @@
       </c>
     </row>
     <row r="50" spans="1:57">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="1">
@@ -6232,7 +6397,7 @@
       </c>
     </row>
     <row r="51" spans="1:57">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="1">
@@ -7219,12 +7384,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="35:57">
-      <c r="AI91" t="s">
+    <row r="91" spans="35:57" ht="22.8">
+      <c r="AI91" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AJ91" t="s">
-        <v>56</v>
+      <c r="AJ91" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="AL91" t="s">
         <v>16</v>
@@ -7252,11 +7417,11 @@
       </c>
     </row>
     <row r="92" spans="35:57">
-      <c r="AI92" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ92" t="s">
-        <v>57</v>
+      <c r="AI92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ92" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="AL92" t="s">
         <v>12</v>
@@ -7283,12 +7448,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="35:57">
-      <c r="AI93" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ93" t="s">
-        <v>58</v>
+    <row r="93" spans="35:57" ht="22.8">
+      <c r="AI93" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ93" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="AL93" t="s">
         <v>19</v>
@@ -7316,11 +7481,11 @@
       </c>
     </row>
     <row r="94" spans="35:57">
-      <c r="AI94" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ94" t="s">
-        <v>59</v>
+      <c r="AI94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ94" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="AL94" t="s">
         <v>13</v>
@@ -7348,11 +7513,11 @@
       </c>
     </row>
     <row r="95" spans="35:57">
-      <c r="AI95" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ95" t="s">
-        <v>60</v>
+      <c r="AI95" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ95" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="AL95" t="s">
         <v>17</v>
@@ -7379,12 +7544,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="35:57">
-      <c r="AI96" t="s">
+    <row r="96" spans="35:57" ht="22.8">
+      <c r="AI96" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AJ96" t="s">
-        <v>61</v>
+      <c r="AJ96" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="AL96" t="s">
         <v>14</v>
@@ -7411,12 +7576,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="35:48">
-      <c r="AI97" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ97" t="s">
-        <v>62</v>
+    <row r="97" spans="35:48" ht="22.8">
+      <c r="AI97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ97" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="AL97" t="s">
         <v>28</v>
@@ -7443,12 +7608,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="35:48">
-      <c r="AI98" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ98" t="s">
-        <v>63</v>
+    <row r="98" spans="35:48" ht="22.8">
+      <c r="AI98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ98" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="AL98" t="s">
         <v>27</v>
@@ -7476,11 +7641,11 @@
       </c>
     </row>
     <row r="99" spans="35:48">
-      <c r="AI99" t="s">
+      <c r="AI99" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AJ99" t="s">
-        <v>64</v>
+      <c r="AJ99" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="AL99" t="s">
         <v>31</v>
@@ -7507,12 +7672,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="35:48">
-      <c r="AI100" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ100" t="s">
-        <v>65</v>
+    <row r="100" spans="35:48" ht="22.8">
+      <c r="AI100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ100" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="AL100" t="s">
         <v>11</v>
@@ -7539,12 +7704,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="35:48">
-      <c r="AI101" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ101" t="s">
-        <v>66</v>
+    <row r="101" spans="35:48" ht="22.8">
+      <c r="AI101" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ101" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="AL101" t="s">
         <v>26</v>
@@ -7571,12 +7736,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="35:48">
-      <c r="AI102" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ102" t="s">
-        <v>67</v>
+    <row r="102" spans="35:48" ht="22.8">
+      <c r="AI102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ102" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="AL102" t="s">
         <v>15</v>
@@ -7603,12 +7768,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="35:48">
-      <c r="AI103" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ103" t="s">
-        <v>68</v>
+    <row r="103" spans="35:48" ht="22.8">
+      <c r="AI103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ103" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="AL103" t="s">
         <v>25</v>
@@ -7635,12 +7800,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="35:48">
-      <c r="AI104" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ104" t="s">
-        <v>69</v>
+    <row r="104" spans="35:48" ht="22.8">
+      <c r="AI104" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ104" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="AL104" t="s">
         <v>18</v>
@@ -7668,11 +7833,11 @@
       </c>
     </row>
     <row r="105" spans="35:48">
-      <c r="AI105" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ105" t="s">
-        <v>70</v>
+      <c r="AI105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ105" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="AL105" t="s">
         <v>20</v>
@@ -7700,11 +7865,11 @@
       </c>
     </row>
     <row r="106" spans="35:48">
-      <c r="AI106" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ106" t="s">
-        <v>71</v>
+      <c r="AI106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ106" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="AL106" t="s">
         <v>30</v>
@@ -7732,11 +7897,11 @@
       </c>
     </row>
     <row r="107" spans="35:48">
-      <c r="AI107" t="s">
+      <c r="AI107" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AJ107" t="s">
-        <v>72</v>
+      <c r="AJ107" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AL107" t="s">
         <v>32</v>
@@ -7764,11 +7929,11 @@
       </c>
     </row>
     <row r="108" spans="35:48">
-      <c r="AI108" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ108" t="s">
-        <v>73</v>
+      <c r="AI108" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ108" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="AL108" t="s">
         <v>23</v>
@@ -7796,11 +7961,11 @@
       </c>
     </row>
     <row r="109" spans="35:48">
-      <c r="AI109" t="s">
+      <c r="AI109" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AJ109" t="s">
-        <v>74</v>
+      <c r="AJ109" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="AL109" t="s">
         <v>29</v>
@@ -7828,11 +7993,11 @@
       </c>
     </row>
     <row r="110" spans="35:48">
-      <c r="AI110" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ110" t="s">
-        <v>75</v>
+      <c r="AI110" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ110" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="AL110" t="s">
         <v>10</v>
@@ -7860,11 +8025,11 @@
       </c>
     </row>
     <row r="111" spans="35:48">
-      <c r="AI111" t="s">
+      <c r="AI111" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AJ111" t="s">
-        <v>76</v>
+      <c r="AJ111" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="AL111" t="s">
         <v>24</v>
@@ -7891,12 +8056,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="35:48">
-      <c r="AI112" t="s">
+    <row r="112" spans="35:48" ht="22.8">
+      <c r="AI112" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AJ112" t="s">
-        <v>77</v>
+      <c r="AJ112" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="AL112" t="s">
         <v>22</v>
@@ -7923,12 +8088,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="35:48">
-      <c r="AI113" t="s">
+    <row r="113" spans="35:48" ht="22.8">
+      <c r="AI113" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AJ113" t="s">
-        <v>78</v>
+      <c r="AJ113" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="AL113" t="s">
         <v>21</v>
@@ -7961,6 +8126,198 @@
       </c>
       <c r="AP114" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="35:48">
+      <c r="AL123" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM123" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="35:48">
+      <c r="AL124" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM124" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="35:48">
+      <c r="AL125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM125" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="35:48">
+      <c r="AL126" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM126" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="35:48">
+      <c r="AL127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM127" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="35:48">
+      <c r="AL128" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM128" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="38:39">
+      <c r="AL129" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM129" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="38:39" ht="22.8">
+      <c r="AL130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM130" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="38:39">
+      <c r="AL131" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM131" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="38:39">
+      <c r="AL132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM132" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="38:39">
+      <c r="AL133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM133" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="38:39">
+      <c r="AL134" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM134" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="38:39">
+      <c r="AL135" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM135" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="38:39">
+      <c r="AL136" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM136" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="38:39">
+      <c r="AL137" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM137" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="38:39">
+      <c r="AL138" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM138" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="38:39">
+      <c r="AL139" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM139" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="38:39">
+      <c r="AL140" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM140" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="38:39">
+      <c r="AL141" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM141" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="38:39">
+      <c r="AL142" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM142" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="38:39">
+      <c r="AL143" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM143" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="38:39">
+      <c r="AL144" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM144" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="38:39">
+      <c r="AL145" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM145" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="38:39">
+      <c r="AL146" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM146" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/DaneTelefonow — kopia.xlsx
+++ b/DaneTelefonow — kopia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapar\Python\BOT\Statystyczna-analiza-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB13DA2C-4211-4CB0-90CF-1A272EA7BFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6B41CB-5903-4E7D-AA1C-FD74D9E5FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -949,6 +949,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1111,7 +1117,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1129,6 +1135,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1700,7 +1709,7 @@
   <dimension ref="A1:BE146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J2:J24"/>
+      <selection activeCell="J4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1851,7 +1860,7 @@
       </c>
     </row>
     <row r="2" spans="1:45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
@@ -1989,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
@@ -2114,34 +2123,34 @@
       </c>
     </row>
     <row r="4" spans="1:45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>6.89</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>899</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>128</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>8</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>166</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>5000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <v>2200</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <v>4</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <v>108</v>
       </c>
       <c r="L4">
@@ -2239,7 +2248,7 @@
       </c>
     </row>
     <row r="5" spans="1:45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1">
@@ -2364,7 +2373,7 @@
       </c>
     </row>
     <row r="6" spans="1:45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1">
@@ -2489,7 +2498,7 @@
       </c>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1">
@@ -2614,34 +2623,34 @@
       </c>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>7.78</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>1899</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>256</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>205</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>4600</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>2400</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <v>108</v>
       </c>
       <c r="L8">
@@ -2739,7 +2748,7 @@
       </c>
     </row>
     <row r="9" spans="1:45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1">
@@ -2864,34 +2873,34 @@
       </c>
     </row>
     <row r="10" spans="1:45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>8.7799999999999994</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>555</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>32</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <v>4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>161</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="6">
         <v>3000</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="6">
         <v>2200</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6">
         <v>30</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="6">
         <v>12</v>
       </c>
       <c r="L10">
@@ -2992,31 +3001,31 @@
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>6.81</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>3700</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>512</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>16</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>187</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <v>5100</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <v>2800</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="6">
         <v>200</v>
       </c>
       <c r="L11">
@@ -3114,7 +3123,7 @@
       </c>
     </row>
     <row r="12" spans="1:45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1">
@@ -3242,31 +3251,31 @@
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>6.79</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>11000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <v>1000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <v>16</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>246</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <v>5000</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="6">
         <v>2620</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="6">
         <v>48</v>
       </c>
       <c r="L13">
@@ -3367,31 +3376,31 @@
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>8.2200000000000006</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>9504</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>1000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <v>8</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>221</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <v>4422</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="6">
         <v>3770</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="6">
         <v>48</v>
       </c>
       <c r="L14">
@@ -3489,7 +3498,7 @@
       </c>
     </row>
     <row r="15" spans="1:45">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1">
@@ -3614,7 +3623,7 @@
       </c>
     </row>
     <row r="16" spans="1:45">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1">
@@ -3739,7 +3748,7 @@
       </c>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1">
@@ -3864,7 +3873,7 @@
       </c>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="1">
@@ -3989,7 +3998,7 @@
       </c>
     </row>
     <row r="19" spans="1:45">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1">
@@ -4114,7 +4123,7 @@
       </c>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1">
@@ -4239,7 +4248,7 @@
       </c>
     </row>
     <row r="21" spans="1:45">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1">
@@ -4364,34 +4373,34 @@
       </c>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>6.15</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>249</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
         <v>1.5625E-2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="6">
         <v>1.5625E-2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <v>79.599999999999994</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="6">
         <v>1200</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="6">
         <v>0</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="6">
         <v>26</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="6">
         <v>2</v>
       </c>
       <c r="L22">
@@ -4489,7 +4498,7 @@
       </c>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
@@ -4614,34 +4623,34 @@
       </c>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>8.81</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>483</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="6">
         <v>16</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="6">
         <v>122</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="6">
         <v>2000</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="6">
         <v>1300</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="6">
         <v>32</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="6">
         <v>8</v>
       </c>
       <c r="L24">

--- a/DaneTelefonow — kopia.xlsx
+++ b/DaneTelefonow — kopia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapar\Python\BOT\Statystyczna-analiza-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6B41CB-5903-4E7D-AA1C-FD74D9E5FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0232F-FC5B-4CD9-AF81-E1A24769F927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="194">
   <si>
     <t>Telefon\zmienne</t>
   </si>
@@ -583,13 +583,67 @@
   </si>
   <si>
     <t>0.649238</t>
+  </si>
+  <si>
+    <t>Grupa 0</t>
+  </si>
+  <si>
+    <t>Grupa 1</t>
+  </si>
+  <si>
+    <t>Grupa</t>
+  </si>
+  <si>
+    <t>cena</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Bateria</t>
+  </si>
+  <si>
+    <t>roznica kwartałów</t>
+  </si>
+  <si>
+    <t>Zegar procesora</t>
+  </si>
+  <si>
+    <t>mpx</t>
+  </si>
+  <si>
+    <t>grupa</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Z. procesora</t>
+  </si>
+  <si>
+    <t>r. kwartalow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Pixel 6pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPPO A91 </t>
+  </si>
+  <si>
+    <t> Apple iphone 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUS ROG PHONE 7 ULTIMATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ULEFONE NOTE 16 PRO </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +814,25 @@
       <color rgb="FF111111"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -1117,7 +1190,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,6 +1212,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1708,8 +1790,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BE146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="A4:J4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J80" sqref="J79:J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2001,31 +2083,31 @@
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>7.95</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>1599</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>128</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>8</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>202</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>5000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <v>2400</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="7">
         <v>3</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="7">
         <v>50</v>
       </c>
       <c r="L3">
@@ -2123,34 +2205,34 @@
       </c>
     </row>
     <row r="4" spans="1:45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>6.89</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>899</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>128</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>166</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>5000</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>2200</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>4</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>108</v>
       </c>
       <c r="L4">
@@ -2251,31 +2333,31 @@
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>6.25</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>1200</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>256</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>8</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>155</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <v>3000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <v>2200</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="7">
         <v>50</v>
       </c>
       <c r="L5">
@@ -2376,31 +2458,31 @@
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>697.7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>128</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>8</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>184</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>4400</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <v>1600</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="7">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="7">
         <v>50</v>
       </c>
       <c r="L6">
@@ -2501,31 +2583,31 @@
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>7.51</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>2250</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>128</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>12</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>210</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>5003</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <v>2800</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="7">
         <v>8</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="7">
         <v>50</v>
       </c>
       <c r="L7">
@@ -2623,34 +2705,34 @@
       </c>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>7.78</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>1899</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>256</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>12</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>205</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>4600</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>2400</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>2</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
         <v>108</v>
       </c>
       <c r="L8">
@@ -5332,6 +5414,12 @@
       <c r="J35" s="1">
         <v>108</v>
       </c>
+      <c r="M35" t="s">
+        <v>176</v>
+      </c>
+      <c r="P35" t="s">
+        <v>177</v>
+      </c>
       <c r="AE35" s="1" t="s">
         <v>17</v>
       </c>
@@ -5401,6 +5489,12 @@
       <c r="J36" s="1">
         <v>50</v>
       </c>
+      <c r="M36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="AE36" s="1" t="s">
         <v>18</v>
       </c>
@@ -5470,6 +5564,12 @@
       <c r="J37" s="1">
         <v>50</v>
       </c>
+      <c r="M37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="AE37" s="1" t="s">
         <v>19</v>
       </c>
@@ -5539,6 +5639,12 @@
       <c r="J38" s="1">
         <v>50</v>
       </c>
+      <c r="M38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="AE38" s="1" t="s">
         <v>20</v>
       </c>
@@ -5608,6 +5714,9 @@
       <c r="J39" s="1">
         <v>108</v>
       </c>
+      <c r="M39" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="AE39" s="1" t="s">
         <v>21</v>
       </c>
@@ -5677,6 +5786,9 @@
       <c r="J40" s="1">
         <v>64</v>
       </c>
+      <c r="M40" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="AE40" s="1" t="s">
         <v>22</v>
       </c>
@@ -5746,6 +5858,9 @@
       <c r="J41" s="1">
         <v>200</v>
       </c>
+      <c r="M41" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="AE41" s="1" t="s">
         <v>23</v>
       </c>
@@ -5815,6 +5930,9 @@
       <c r="J42" s="1">
         <v>50</v>
       </c>
+      <c r="M42" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="AE42" s="1" t="s">
         <v>24</v>
       </c>
@@ -5884,6 +6002,9 @@
       <c r="J43" s="1">
         <v>48</v>
       </c>
+      <c r="M43" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="AE43" s="1" t="s">
         <v>25</v>
       </c>
@@ -5953,6 +6074,9 @@
       <c r="J44" s="1">
         <v>48</v>
       </c>
+      <c r="M44" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="AE44" s="1" t="s">
         <v>26</v>
       </c>
@@ -6022,6 +6146,9 @@
       <c r="J45" s="1">
         <v>12</v>
       </c>
+      <c r="M45" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="AE45" s="1" t="s">
         <v>27</v>
       </c>
@@ -6091,6 +6218,9 @@
       <c r="J46" s="1">
         <v>50</v>
       </c>
+      <c r="M46" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="AE46" s="1" t="s">
         <v>28</v>
       </c>
@@ -6160,6 +6290,9 @@
       <c r="J47" s="1">
         <v>50</v>
       </c>
+      <c r="M47" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="AE47" s="1" t="s">
         <v>29</v>
       </c>
@@ -6229,6 +6362,9 @@
       <c r="J48" s="1">
         <v>48</v>
       </c>
+      <c r="M48" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="AE48" s="1" t="s">
         <v>30</v>
       </c>
@@ -6298,6 +6434,9 @@
       <c r="J49" s="1">
         <v>48</v>
       </c>
+      <c r="M49" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="AE49" s="1" t="s">
         <v>31</v>
       </c>
@@ -6543,6 +6682,30 @@
       </c>
     </row>
     <row r="58" spans="1:57">
+      <c r="L58" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>186</v>
+      </c>
+      <c r="P58" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>187</v>
+      </c>
+      <c r="R58" t="s">
+        <v>188</v>
+      </c>
+      <c r="S58" t="s">
+        <v>184</v>
+      </c>
       <c r="AL58" t="s">
         <v>43</v>
       </c>
@@ -6571,7 +6734,57 @@
         <v>50</v>
       </c>
     </row>
+    <row r="59" spans="1:57">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>7.36</v>
+      </c>
+      <c r="N59">
+        <v>2005.8</v>
+      </c>
+      <c r="O59">
+        <v>7.6</v>
+      </c>
+      <c r="P59">
+        <v>4411.3999999999996</v>
+      </c>
+      <c r="Q59">
+        <v>2772</v>
+      </c>
+      <c r="R59">
+        <v>9</v>
+      </c>
+      <c r="S59">
+        <v>51.6</v>
+      </c>
+    </row>
     <row r="60" spans="1:57">
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>7.6566669999999997</v>
+      </c>
+      <c r="N60">
+        <v>3718.833333</v>
+      </c>
+      <c r="O60">
+        <v>12.666667</v>
+      </c>
+      <c r="P60">
+        <v>5176.6666670000004</v>
+      </c>
+      <c r="Q60">
+        <v>3226.666667</v>
+      </c>
+      <c r="R60">
+        <v>3.1666669999999999</v>
+      </c>
+      <c r="S60">
+        <v>54.666666999999997</v>
+      </c>
       <c r="AL60" s="1" t="s">
         <v>41</v>
       </c>
@@ -6607,6 +6820,54 @@
       </c>
     </row>
     <row r="61" spans="1:57">
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61" t="s">
+        <v>181</v>
+      </c>
+      <c r="H61" t="s">
+        <v>183</v>
+      </c>
+      <c r="I61" t="s">
+        <v>182</v>
+      </c>
+      <c r="J61" t="s">
+        <v>184</v>
+      </c>
+      <c r="L61" s="3">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>5.69</v>
+      </c>
+      <c r="N61">
+        <v>965.23333300000002</v>
+      </c>
+      <c r="O61">
+        <v>8</v>
+      </c>
+      <c r="P61">
+        <v>3973.333333</v>
+      </c>
+      <c r="Q61">
+        <v>2000</v>
+      </c>
+      <c r="R61">
+        <v>2.6666669999999999</v>
+      </c>
+      <c r="S61">
+        <v>54.666666999999997</v>
+      </c>
       <c r="AL61" s="1" t="s">
         <v>19</v>
       </c>
@@ -6639,6 +6900,54 @@
       </c>
     </row>
     <row r="62" spans="1:57">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>7.06</v>
+      </c>
+      <c r="E62">
+        <v>1825</v>
+      </c>
+      <c r="F62">
+        <v>8.14</v>
+      </c>
+      <c r="G62">
+        <v>4408.71</v>
+      </c>
+      <c r="H62">
+        <v>2617.14</v>
+      </c>
+      <c r="I62">
+        <v>5.4290000000000003</v>
+      </c>
+      <c r="J62">
+        <v>58.14</v>
+      </c>
+      <c r="L62" s="3">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>7.335</v>
+      </c>
+      <c r="N62">
+        <v>1399</v>
+      </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
+      <c r="P62">
+        <v>4800</v>
+      </c>
+      <c r="Q62">
+        <v>2300</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62">
+        <v>108</v>
+      </c>
       <c r="AL62" s="1" t="s">
         <v>16</v>
       </c>
@@ -6671,6 +6980,54 @@
       </c>
     </row>
     <row r="63" spans="1:57">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>7.04</v>
+      </c>
+      <c r="E63">
+        <v>5099</v>
+      </c>
+      <c r="F63">
+        <v>16</v>
+      </c>
+      <c r="G63">
+        <v>5666.66</v>
+      </c>
+      <c r="H63">
+        <v>3466.6666</v>
+      </c>
+      <c r="I63">
+        <v>3.66</v>
+      </c>
+      <c r="J63">
+        <v>54.67</v>
+      </c>
+      <c r="L63" s="3">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>5.48</v>
+      </c>
+      <c r="N63">
+        <v>2819</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63">
+        <v>4085</v>
+      </c>
+      <c r="Q63">
+        <v>3220</v>
+      </c>
+      <c r="R63">
+        <v>9</v>
+      </c>
+      <c r="S63">
+        <v>12</v>
+      </c>
       <c r="AL63" s="1" t="s">
         <v>25</v>
       </c>
@@ -6734,7 +7091,7 @@
         <v>0.52736704479137275</v>
       </c>
     </row>
-    <row r="65" spans="38:57">
+    <row r="65" spans="3:57">
       <c r="AL65" s="1" t="s">
         <v>24</v>
       </c>
@@ -6766,7 +7123,7 @@
         <v>0.44020310232598014</v>
       </c>
     </row>
-    <row r="66" spans="38:57">
+    <row r="66" spans="3:57">
       <c r="AL66" s="1" t="s">
         <v>29</v>
       </c>
@@ -6798,7 +7155,7 @@
         <v>0.43548709868174995</v>
       </c>
     </row>
-    <row r="67" spans="38:57">
+    <row r="67" spans="3:57">
       <c r="AL67" s="1" t="s">
         <v>12</v>
       </c>
@@ -6830,7 +7187,7 @@
         <v>0.42516518152187044</v>
       </c>
     </row>
-    <row r="68" spans="38:57">
+    <row r="68" spans="3:57">
       <c r="AL68" s="1" t="s">
         <v>22</v>
       </c>
@@ -6862,7 +7219,31 @@
         <v>0.40241647638049094</v>
       </c>
     </row>
-    <row r="69" spans="38:57">
+    <row r="69" spans="3:57">
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>179</v>
+      </c>
+      <c r="F69" t="s">
+        <v>180</v>
+      </c>
+      <c r="G69" t="s">
+        <v>181</v>
+      </c>
+      <c r="H69" t="s">
+        <v>183</v>
+      </c>
+      <c r="I69" t="s">
+        <v>182</v>
+      </c>
+      <c r="J69" t="s">
+        <v>184</v>
+      </c>
       <c r="AL69" s="1" t="s">
         <v>15</v>
       </c>
@@ -6894,7 +7275,31 @@
         <v>0.39709956270578295</v>
       </c>
     </row>
-    <row r="70" spans="38:57">
+    <row r="70" spans="3:57">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>7.36</v>
+      </c>
+      <c r="E70">
+        <v>2005</v>
+      </c>
+      <c r="F70">
+        <v>7.6</v>
+      </c>
+      <c r="G70">
+        <v>4411</v>
+      </c>
+      <c r="H70">
+        <v>2772</v>
+      </c>
+      <c r="I70">
+        <v>9</v>
+      </c>
+      <c r="J70">
+        <v>51.6</v>
+      </c>
       <c r="AL70" s="1" t="s">
         <v>20</v>
       </c>
@@ -6926,7 +7331,10 @@
         <v>0.38987875650220638</v>
       </c>
     </row>
-    <row r="71" spans="38:57">
+    <row r="71" spans="3:57">
+      <c r="C71">
+        <v>1</v>
+      </c>
       <c r="AL71" s="1" t="s">
         <v>11</v>
       </c>
@@ -6958,7 +7366,10 @@
         <v>0.38407892266457866</v>
       </c>
     </row>
-    <row r="72" spans="38:57">
+    <row r="72" spans="3:57">
+      <c r="C72">
+        <v>2</v>
+      </c>
       <c r="AL72" s="1" t="s">
         <v>26</v>
       </c>
@@ -6990,7 +7401,10 @@
         <v>0.3658020189430089</v>
       </c>
     </row>
-    <row r="73" spans="38:57">
+    <row r="73" spans="3:57">
+      <c r="C73">
+        <v>3</v>
+      </c>
       <c r="AL73" s="1" t="s">
         <v>31</v>
       </c>
@@ -7022,7 +7436,10 @@
         <v>0.33982659285824601</v>
       </c>
     </row>
-    <row r="74" spans="38:57">
+    <row r="74" spans="3:57">
+      <c r="C74">
+        <v>4</v>
+      </c>
       <c r="AL74" s="1" t="s">
         <v>21</v>
       </c>
@@ -7054,7 +7471,7 @@
         <v>0.33222771847742405</v>
       </c>
     </row>
-    <row r="75" spans="38:57">
+    <row r="75" spans="3:57">
       <c r="AL75" s="1" t="s">
         <v>10</v>
       </c>
@@ -7086,7 +7503,7 @@
         <v>0.30041287580827525</v>
       </c>
     </row>
-    <row r="76" spans="38:57">
+    <row r="76" spans="3:57">
       <c r="AL76" s="1" t="s">
         <v>27</v>
       </c>
@@ -7118,7 +7535,7 @@
         <v>0.26376142857005047</v>
       </c>
     </row>
-    <row r="77" spans="38:57">
+    <row r="77" spans="3:57">
       <c r="AL77" s="1" t="s">
         <v>17</v>
       </c>
@@ -7150,7 +7567,7 @@
         <v>0.25164960078679122</v>
       </c>
     </row>
-    <row r="78" spans="38:57">
+    <row r="78" spans="3:57">
       <c r="AL78" s="1" t="s">
         <v>13</v>
       </c>
@@ -7182,7 +7599,22 @@
         <v>0.2220349684447761</v>
       </c>
     </row>
-    <row r="79" spans="38:57">
+    <row r="79" spans="3:57">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
       <c r="AL79" s="1" t="s">
         <v>14</v>
       </c>
@@ -7214,7 +7646,22 @@
         <v>0.19809533278625058</v>
       </c>
     </row>
-    <row r="80" spans="38:57">
+    <row r="80" spans="3:57">
+      <c r="D80" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="AL80" s="1" t="s">
         <v>23</v>
       </c>
@@ -7246,7 +7693,19 @@
         <v>0.11944933282776127</v>
       </c>
     </row>
-    <row r="81" spans="35:57">
+    <row r="81" spans="4:57">
+      <c r="D81" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="AL81" s="1" t="s">
         <v>18</v>
       </c>
@@ -7278,7 +7737,16 @@
         <v>0.1135949423439685</v>
       </c>
     </row>
-    <row r="82" spans="35:57">
+    <row r="82" spans="4:57">
+      <c r="D82" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="AL82" s="1" t="s">
         <v>32</v>
       </c>
@@ -7310,7 +7778,13 @@
         <v>8.2434236520135928E-2</v>
       </c>
     </row>
-    <row r="83" spans="35:57">
+    <row r="83" spans="4:57">
+      <c r="D83" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="AL83" s="1" t="s">
         <v>30</v>
       </c>
@@ -7342,7 +7816,20 @@
         <v>-0.11007944861323793</v>
       </c>
     </row>
-    <row r="88" spans="35:57">
+    <row r="84" spans="4:57">
+      <c r="D84" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="4:57">
+      <c r="F85" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="4:57">
       <c r="AI88" t="s">
         <v>79</v>
       </c>
@@ -7350,7 +7837,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="35:57">
+    <row r="89" spans="4:57">
       <c r="AL89" t="s">
         <v>104</v>
       </c>
@@ -7361,7 +7848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="35:57">
+    <row r="90" spans="4:57">
       <c r="AI90" t="s">
         <v>54</v>
       </c>
@@ -7393,7 +7880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="35:57" ht="22.8">
+    <row r="91" spans="4:57" ht="22.8">
       <c r="AI91" s="5" t="s">
         <v>19</v>
       </c>
@@ -7425,7 +7912,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="35:57">
+    <row r="92" spans="4:57">
       <c r="AI92" s="5" t="s">
         <v>16</v>
       </c>
@@ -7457,7 +7944,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="35:57" ht="22.8">
+    <row r="93" spans="4:57" ht="22.8">
       <c r="AI93" s="5" t="s">
         <v>25</v>
       </c>
@@ -7489,7 +7976,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="35:57">
+    <row r="94" spans="4:57">
       <c r="AI94" s="5" t="s">
         <v>12</v>
       </c>
@@ -7521,7 +8008,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="35:57">
+    <row r="95" spans="4:57">
       <c r="AI95" s="5" t="s">
         <v>28</v>
       </c>
@@ -7553,7 +8040,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="35:57" ht="22.8">
+    <row r="96" spans="4:57" ht="22.8">
       <c r="AI96" s="5" t="s">
         <v>29</v>
       </c>
